--- a/data/3.Fisioterapia/leads_Fisioterapia_completo.xlsx
+++ b/data/3.Fisioterapia/leads_Fisioterapia_completo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/06ae8d044cc0a8d9/Documentos/GitHub/Leads_sheacher/data/3.Fisioterapia/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ej.garcia\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{BAFC9D06-01F9-4528-BBAF-4D1B383CE318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E440A48-4FA1-453F-AC89-CD3D99D54E47}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F14D78F-DBE7-4282-9A88-9F4A37F18486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="636">
   <si>
     <t>Nombre</t>
   </si>
@@ -1938,6 +1938,9 @@
   </si>
   <si>
     <t>info@fisioterapiasernoe.es;info@clinicaabla.com;hola@osteopatiazarco.com;info@roucofisioterapia.es;info@pasosfisioterapia.com;logopedia@clinicaemme.es;info@fisiocasa.es;info@ergosalud.es;info@clinicaabla.com;fisioinelite@gmail.com;info@texum.es;info@clinicabaena.com;info.sanfernando@laphysiologie.es;info@clinicaabla.com;contact@mysite.com;info@fisioterapiaescalante.com;info@clinicaolivo.es;dpo@forus.es;info@tressalud.com;daniel.anson@osteomagicmadrid.com</t>
+  </si>
+  <si>
+    <t>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es;info@afisionatemadrid.com;contactofisioalmat@fisioterapiamadrid.net;flags@2x.webp;info@fisiomadrid21.com;info@acfisio.es;info@clinicarozalen.com;info@medicalr2.es;info@fisio-especialistas.com</t>
   </si>
 </sst>
 </file>
@@ -2309,13 +2312,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="H82" sqref="H82"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="H121" sqref="H121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2338,7 +2341,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2365,7 +2368,7 @@
         <v>info@fisioterapia-alcobendas.com</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2392,7 +2395,7 @@
         <v>info@fisioterapia-alcobendas.com;alcofisio@fisioterapiaenalcobendas.es</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -2419,7 +2422,7 @@
         <v>info@fisioterapia-alcobendas.com;alcofisio@fisioterapiaenalcobendas.es;alcobendas@fisioweb.com</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -2446,7 +2449,7 @@
         <v>info@fisioterapia-alcobendas.com;alcofisio@fisioterapiaenalcobendas.es;alcobendas@fisioweb.com;cliniccaremadrid@gmail.com</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -2473,7 +2476,7 @@
         <v>info@fisioterapia-alcobendas.com;alcofisio@fisioterapiaenalcobendas.es;alcobendas@fisioweb.com;cliniccaremadrid@gmail.com;info.madrid@fisio-clinics.com</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -2500,7 +2503,7 @@
         <v>info@fisioterapia-alcobendas.com;alcofisio@fisioterapiaenalcobendas.es;alcobendas@fisioweb.com;cliniccaremadrid@gmail.com;info.madrid@fisio-clinics.com;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -2527,7 +2530,7 @@
         <v>info@fisioterapia-alcobendas.com;alcofisio@fisioterapiaenalcobendas.es;alcobendas@fisioweb.com;cliniccaremadrid@gmail.com;info.madrid@fisio-clinics.com;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com;cfalcobendas@fisiogestion.com</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -2554,7 +2557,7 @@
         <v>info@fisioterapia-alcobendas.com;alcofisio@fisioterapiaenalcobendas.es;alcobendas@fisioweb.com;cliniccaremadrid@gmail.com;info.madrid@fisio-clinics.com;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com;cfalcobendas@fisiogestion.com;clinicaoseo@gmail.com</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -2581,7 +2584,7 @@
         <v>info@fisioterapia-alcobendas.com;alcofisio@fisioterapiaenalcobendas.es;alcobendas@fisioweb.com;cliniccaremadrid@gmail.com;info.madrid@fisio-clinics.com;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com;cfalcobendas@fisiogestion.com;clinicaoseo@gmail.com;info@fisioterapialavega.com</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -2608,7 +2611,7 @@
         <v>info@fisioterapia-alcobendas.com;alcofisio@fisioterapiaenalcobendas.es;alcobendas@fisioweb.com;cliniccaremadrid@gmail.com;info.madrid@fisio-clinics.com;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com;cfalcobendas@fisiogestion.com;clinicaoseo@gmail.com;info@fisioterapialavega.com;aramendiasalud@gmail.com</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>59</v>
       </c>
@@ -2635,7 +2638,7 @@
         <v>info@fisioterapia-alcobendas.com;alcofisio@fisioterapiaenalcobendas.es;alcobendas@fisioweb.com;cliniccaremadrid@gmail.com;info.madrid@fisio-clinics.com;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com;cfalcobendas@fisiogestion.com;clinicaoseo@gmail.com;info@fisioterapialavega.com;aramendiasalud@gmail.com;info@onfisioterapia.com</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -2662,7 +2665,7 @@
         <v>info@fisioterapia-alcobendas.com;alcofisio@fisioterapiaenalcobendas.es;alcobendas@fisioweb.com;cliniccaremadrid@gmail.com;info.madrid@fisio-clinics.com;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com;cfalcobendas@fisiogestion.com;clinicaoseo@gmail.com;info@fisioterapialavega.com;aramendiasalud@gmail.com;info@onfisioterapia.com;info@fisioterapialamoraleja.com</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>69</v>
       </c>
@@ -2689,7 +2692,7 @@
         <v>info@fisioterapia-alcobendas.com;alcofisio@fisioterapiaenalcobendas.es;alcobendas@fisioweb.com;cliniccaremadrid@gmail.com;info.madrid@fisio-clinics.com;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com;cfalcobendas@fisiogestion.com;clinicaoseo@gmail.com;info@fisioterapialavega.com;aramendiasalud@gmail.com;info@onfisioterapia.com;info@fisioterapialamoraleja.com;fisioactiv@fisio-activ.es</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>74</v>
       </c>
@@ -2716,7 +2719,7 @@
         <v>info@fisioterapia-alcobendas.com;alcofisio@fisioterapiaenalcobendas.es;alcobendas@fisioweb.com;cliniccaremadrid@gmail.com;info.madrid@fisio-clinics.com;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com;cfalcobendas@fisiogestion.com;clinicaoseo@gmail.com;info@fisioterapialavega.com;aramendiasalud@gmail.com;info@onfisioterapia.com;info@fisioterapialamoraleja.com;fisioactiv@fisio-activ.es;clinicanarro@hotmail.com</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>79</v>
       </c>
@@ -2743,7 +2746,7 @@
         <v>info@fisioterapia-alcobendas.com;alcofisio@fisioterapiaenalcobendas.es;alcobendas@fisioweb.com;cliniccaremadrid@gmail.com;info.madrid@fisio-clinics.com;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com;cfalcobendas@fisiogestion.com;clinicaoseo@gmail.com;info@fisioterapialavega.com;aramendiasalud@gmail.com;info@onfisioterapia.com;info@fisioterapialamoraleja.com;fisioactiv@fisio-activ.es;clinicanarro@hotmail.com;info.madrid@fisio-clinics.com</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>80</v>
       </c>
@@ -2770,7 +2773,7 @@
         <v>info@fisioterapia-alcobendas.com;alcofisio@fisioterapiaenalcobendas.es;alcobendas@fisioweb.com;cliniccaremadrid@gmail.com;info.madrid@fisio-clinics.com;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com;cfalcobendas@fisiogestion.com;clinicaoseo@gmail.com;info@fisioterapialavega.com;aramendiasalud@gmail.com;info@onfisioterapia.com;info@fisioterapialamoraleja.com;fisioactiv@fisio-activ.es;clinicanarro@hotmail.com;info.madrid@fisio-clinics.com;alcobendas@clinicaelvia.com</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -2797,7 +2800,7 @@
         <v>info@fisioterapia-alcobendas.com;alcofisio@fisioterapiaenalcobendas.es;alcobendas@fisioweb.com;cliniccaremadrid@gmail.com;info.madrid@fisio-clinics.com;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com;cfalcobendas@fisiogestion.com;clinicaoseo@gmail.com;info@fisioterapialavega.com;aramendiasalud@gmail.com;info@onfisioterapia.com;info@fisioterapialamoraleja.com;fisioactiv@fisio-activ.es;clinicanarro@hotmail.com;info.madrid@fisio-clinics.com;alcobendas@clinicaelvia.com;clinicazoe@clinicazoe.com</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>90</v>
       </c>
@@ -2824,7 +2827,7 @@
         <v>info@fisioterapia-alcobendas.com;alcofisio@fisioterapiaenalcobendas.es;alcobendas@fisioweb.com;cliniccaremadrid@gmail.com;info.madrid@fisio-clinics.com;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com;cfalcobendas@fisiogestion.com;clinicaoseo@gmail.com;info@fisioterapialavega.com;aramendiasalud@gmail.com;info@onfisioterapia.com;info@fisioterapialamoraleja.com;fisioactiv@fisio-activ.es;clinicanarro@hotmail.com;info.madrid@fisio-clinics.com;alcobendas@clinicaelvia.com;clinicazoe@clinicazoe.com;aliciafisioterapiamadrid@gmail.com</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>95</v>
       </c>
@@ -2851,7 +2854,7 @@
         <v>info@fisioterapia-alcobendas.com;alcofisio@fisioterapiaenalcobendas.es;alcobendas@fisioweb.com;cliniccaremadrid@gmail.com;info.madrid@fisio-clinics.com;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com;cfalcobendas@fisiogestion.com;clinicaoseo@gmail.com;info@fisioterapialavega.com;aramendiasalud@gmail.com;info@onfisioterapia.com;info@fisioterapialamoraleja.com;fisioactiv@fisio-activ.es;clinicanarro@hotmail.com;info.madrid@fisio-clinics.com;alcobendas@clinicaelvia.com;clinicazoe@clinicazoe.com;aliciafisioterapiamadrid@gmail.com;info@clinicaimprove.es</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>100</v>
       </c>
@@ -2877,7 +2880,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>105</v>
       </c>
@@ -2904,7 +2907,7 @@
         <v>hola@inimarehabilitacion.com</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -2931,7 +2934,7 @@
         <v>hola@inimarehabilitacion.com;salud@sputnikclimbing.com</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>115</v>
       </c>
@@ -2958,7 +2961,7 @@
         <v>hola@inimarehabilitacion.com;salud@sputnikclimbing.com;administracion@renuevat.es</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>120</v>
       </c>
@@ -2985,7 +2988,7 @@
         <v>hola@inimarehabilitacion.com;salud@sputnikclimbing.com;administracion@renuevat.es;clinicaolivaralcobendas@gmail.com</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>125</v>
       </c>
@@ -3012,7 +3015,7 @@
         <v>hola@inimarehabilitacion.com;salud@sputnikclimbing.com;administracion@renuevat.es;clinicaolivaralcobendas@gmail.com;info@fisioterapiaequilybrium.es</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>130</v>
       </c>
@@ -3039,7 +3042,7 @@
         <v>hola@inimarehabilitacion.com;salud@sputnikclimbing.com;administracion@renuevat.es;clinicaolivaralcobendas@gmail.com;info@fisioterapiaequilybrium.es;info@zenther.com</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>135</v>
       </c>
@@ -3066,7 +3069,7 @@
         <v>hola@inimarehabilitacion.com;salud@sputnikclimbing.com;administracion@renuevat.es;clinicaolivaralcobendas@gmail.com;info@fisioterapiaequilybrium.es;info@zenther.com;jfcollin00@gmail.com</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>140</v>
       </c>
@@ -3093,7 +3096,7 @@
         <v>hola@inimarehabilitacion.com;salud@sputnikclimbing.com;administracion@renuevat.es;clinicaolivaralcobendas@gmail.com;info@fisioterapiaequilybrium.es;info@zenther.com;jfcollin00@gmail.com;clinica@centroclinicolachopera.com</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>145</v>
       </c>
@@ -3120,7 +3123,7 @@
         <v>hola@inimarehabilitacion.com;salud@sputnikclimbing.com;administracion@renuevat.es;clinicaolivaralcobendas@gmail.com;info@fisioterapiaequilybrium.es;info@zenther.com;jfcollin00@gmail.com;clinica@centroclinicolachopera.com;info@fisioterapiasacral.com</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>150</v>
       </c>
@@ -3147,7 +3150,7 @@
         <v>hola@inimarehabilitacion.com;salud@sputnikclimbing.com;administracion@renuevat.es;clinicaolivaralcobendas@gmail.com;info@fisioterapiaequilybrium.es;info@zenther.com;jfcollin00@gmail.com;clinica@centroclinicolachopera.com;info@fisioterapiasacral.com;info@fisiocore.net</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>155</v>
       </c>
@@ -3174,7 +3177,7 @@
         <v>hola@inimarehabilitacion.com;salud@sputnikclimbing.com;administracion@renuevat.es;clinicaolivaralcobendas@gmail.com;info@fisioterapiaequilybrium.es;info@zenther.com;jfcollin00@gmail.com;clinica@centroclinicolachopera.com;info@fisioterapiasacral.com;info@fisiocore.net;fisiociclica.sandra@gmail.com</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>160</v>
       </c>
@@ -3201,7 +3204,7 @@
         <v>hola@inimarehabilitacion.com;salud@sputnikclimbing.com;administracion@renuevat.es;clinicaolivaralcobendas@gmail.com;info@fisioterapiaequilybrium.es;info@zenther.com;jfcollin00@gmail.com;clinica@centroclinicolachopera.com;info@fisioterapiasacral.com;info@fisiocore.net;fisiociclica.sandra@gmail.com;sansebastian@fisioweb.com</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>165</v>
       </c>
@@ -3228,7 +3231,7 @@
         <v>hola@inimarehabilitacion.com;salud@sputnikclimbing.com;administracion@renuevat.es;clinicaolivaralcobendas@gmail.com;info@fisioterapiaequilybrium.es;info@zenther.com;jfcollin00@gmail.com;clinica@centroclinicolachopera.com;info@fisioterapiasacral.com;info@fisiocore.net;fisiociclica.sandra@gmail.com;sansebastian@fisioweb.com;cjfisioterapeutas@gmail.com</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>170</v>
       </c>
@@ -3255,7 +3258,7 @@
         <v>hola@inimarehabilitacion.com;salud@sputnikclimbing.com;administracion@renuevat.es;clinicaolivaralcobendas@gmail.com;info@fisioterapiaequilybrium.es;info@zenther.com;jfcollin00@gmail.com;clinica@centroclinicolachopera.com;info@fisioterapiasacral.com;info@fisiocore.net;fisiociclica.sandra@gmail.com;sansebastian@fisioweb.com;cjfisioterapeutas@gmail.com;recepcion@clinicasaleria.es</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>175</v>
       </c>
@@ -3279,7 +3282,7 @@
         <v>hola@inimarehabilitacion.com;salud@sputnikclimbing.com;administracion@renuevat.es;clinicaolivaralcobendas@gmail.com;info@fisioterapiaequilybrium.es;info@zenther.com;jfcollin00@gmail.com;clinica@centroclinicolachopera.com;info@fisioterapiasacral.com;info@fisiocore.net;fisiociclica.sandra@gmail.com;sansebastian@fisioweb.com;cjfisioterapeutas@gmail.com;recepcion@clinicasaleria.es;soporte@doctoralia.com</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>179</v>
       </c>
@@ -3306,7 +3309,7 @@
         <v>hola@inimarehabilitacion.com;salud@sputnikclimbing.com;administracion@renuevat.es;clinicaolivaralcobendas@gmail.com;info@fisioterapiaequilybrium.es;info@zenther.com;jfcollin00@gmail.com;clinica@centroclinicolachopera.com;info@fisioterapiasacral.com;info@fisiocore.net;fisiociclica.sandra@gmail.com;sansebastian@fisioweb.com;cjfisioterapeutas@gmail.com;recepcion@clinicasaleria.es;soporte@doctoralia.com;contacto@fisiorespiracion.es</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>184</v>
       </c>
@@ -3333,7 +3336,7 @@
         <v>hola@inimarehabilitacion.com;salud@sputnikclimbing.com;administracion@renuevat.es;clinicaolivaralcobendas@gmail.com;info@fisioterapiaequilybrium.es;info@zenther.com;jfcollin00@gmail.com;clinica@centroclinicolachopera.com;info@fisioterapiasacral.com;info@fisiocore.net;fisiociclica.sandra@gmail.com;sansebastian@fisioweb.com;cjfisioterapeutas@gmail.com;recepcion@clinicasaleria.es;soporte@doctoralia.com;contacto@fisiorespiracion.es;info@clinicainnovasalud.com</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>189</v>
       </c>
@@ -3360,7 +3363,7 @@
         <v>hola@inimarehabilitacion.com;salud@sputnikclimbing.com;administracion@renuevat.es;clinicaolivaralcobendas@gmail.com;info@fisioterapiaequilybrium.es;info@zenther.com;jfcollin00@gmail.com;clinica@centroclinicolachopera.com;info@fisioterapiasacral.com;info@fisiocore.net;fisiociclica.sandra@gmail.com;sansebastian@fisioweb.com;cjfisioterapeutas@gmail.com;recepcion@clinicasaleria.es;soporte@doctoralia.com;contacto@fisiorespiracion.es;info@clinicainnovasalud.com;atencionalpaciente@fisiowork.com</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>194</v>
       </c>
@@ -3387,7 +3390,7 @@
         <v>hola@inimarehabilitacion.com;salud@sputnikclimbing.com;administracion@renuevat.es;clinicaolivaralcobendas@gmail.com;info@fisioterapiaequilybrium.es;info@zenther.com;jfcollin00@gmail.com;clinica@centroclinicolachopera.com;info@fisioterapiasacral.com;info@fisiocore.net;fisiociclica.sandra@gmail.com;sansebastian@fisioweb.com;cjfisioterapeutas@gmail.com;recepcion@clinicasaleria.es;soporte@doctoralia.com;contacto@fisiorespiracion.es;info@clinicainnovasalud.com;atencionalpaciente@fisiowork.com;ajax-loader@2x.gif</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>199</v>
       </c>
@@ -3413,7 +3416,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>204</v>
       </c>
@@ -3440,7 +3443,7 @@
         <v>infohabana@fisiolution.com</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>209</v>
       </c>
@@ -3467,7 +3470,7 @@
         <v>infohabana@fisiolution.com;info@dfisio.com</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>214</v>
       </c>
@@ -3494,7 +3497,7 @@
         <v>infohabana@fisiolution.com;info@dfisio.com;info@kineyafisioterapia.com</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>219</v>
       </c>
@@ -3521,7 +3524,7 @@
         <v>infohabana@fisiolution.com;info@dfisio.com;info@kineyafisioterapia.com;centromove2be@gmail.com</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>224</v>
       </c>
@@ -3548,7 +3551,7 @@
         <v>infohabana@fisiolution.com;info@dfisio.com;info@kineyafisioterapia.com;centromove2be@gmail.com;info@fisiomotionsanse.com</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>228</v>
       </c>
@@ -3575,7 +3578,7 @@
         <v>infohabana@fisiolution.com;info@dfisio.com;info@kineyafisioterapia.com;centromove2be@gmail.com;info@fisiomotionsanse.com;agdgfisioterapia@gmail.com</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>234</v>
       </c>
@@ -3602,7 +3605,7 @@
         <v>infohabana@fisiolution.com;info@dfisio.com;info@kineyafisioterapia.com;centromove2be@gmail.com;info@fisiomotionsanse.com;agdgfisioterapia@gmail.com;info@soulfisioterapia.com</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>239</v>
       </c>
@@ -3629,7 +3632,7 @@
         <v>infohabana@fisiolution.com;info@dfisio.com;info@kineyafisioterapia.com;centromove2be@gmail.com;info@fisiomotionsanse.com;agdgfisioterapia@gmail.com;info@soulfisioterapia.com;clinicakorporea@yahoo.com</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>244</v>
       </c>
@@ -3656,7 +3659,7 @@
         <v>infohabana@fisiolution.com;info@dfisio.com;info@kineyafisioterapia.com;centromove2be@gmail.com;info@fisiomotionsanse.com;agdgfisioterapia@gmail.com;info@soulfisioterapia.com;clinicakorporea@yahoo.com;grupo_kit_mobile@2x.png</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>249</v>
       </c>
@@ -3683,7 +3686,7 @@
         <v>infohabana@fisiolution.com;info@dfisio.com;info@kineyafisioterapia.com;centromove2be@gmail.com;info@fisiomotionsanse.com;agdgfisioterapia@gmail.com;info@soulfisioterapia.com;clinicakorporea@yahoo.com;grupo_kit_mobile@2x.png;agdgfisioterapia@gmail.com</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>252</v>
       </c>
@@ -3710,7 +3713,7 @@
         <v>infohabana@fisiolution.com;info@dfisio.com;info@kineyafisioterapia.com;centromove2be@gmail.com;info@fisiomotionsanse.com;agdgfisioterapia@gmail.com;info@soulfisioterapia.com;clinicakorporea@yahoo.com;grupo_kit_mobile@2x.png;agdgfisioterapia@gmail.com;info@puertosalud.es</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>257</v>
       </c>
@@ -3737,7 +3740,7 @@
         <v>infohabana@fisiolution.com;info@dfisio.com;info@kineyafisioterapia.com;centromove2be@gmail.com;info@fisiomotionsanse.com;agdgfisioterapia@gmail.com;info@soulfisioterapia.com;clinicakorporea@yahoo.com;grupo_kit_mobile@2x.png;agdgfisioterapia@gmail.com;info@puertosalud.es;info@clinicaprismacoslada.com</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>262</v>
       </c>
@@ -3764,7 +3767,7 @@
         <v>infohabana@fisiolution.com;info@dfisio.com;info@kineyafisioterapia.com;centromove2be@gmail.com;info@fisiomotionsanse.com;agdgfisioterapia@gmail.com;info@soulfisioterapia.com;clinicakorporea@yahoo.com;grupo_kit_mobile@2x.png;agdgfisioterapia@gmail.com;info@puertosalud.es;info@clinicaprismacoslada.com;osfisalud@gmail.com</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>267</v>
       </c>
@@ -3791,7 +3794,7 @@
         <v>infohabana@fisiolution.com;info@dfisio.com;info@kineyafisioterapia.com;centromove2be@gmail.com;info@fisiomotionsanse.com;agdgfisioterapia@gmail.com;info@soulfisioterapia.com;clinicakorporea@yahoo.com;grupo_kit_mobile@2x.png;agdgfisioterapia@gmail.com;info@puertosalud.es;info@clinicaprismacoslada.com;osfisalud@gmail.com;info@andaclinic.com</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>272</v>
       </c>
@@ -3818,7 +3821,7 @@
         <v>infohabana@fisiolution.com;info@dfisio.com;info@kineyafisioterapia.com;centromove2be@gmail.com;info@fisiomotionsanse.com;agdgfisioterapia@gmail.com;info@soulfisioterapia.com;clinicakorporea@yahoo.com;grupo_kit_mobile@2x.png;agdgfisioterapia@gmail.com;info@puertosalud.es;info@clinicaprismacoslada.com;osfisalud@gmail.com;info@andaclinic.com;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>276</v>
       </c>
@@ -3845,7 +3848,7 @@
         <v>infohabana@fisiolution.com;info@dfisio.com;info@kineyafisioterapia.com;centromove2be@gmail.com;info@fisiomotionsanse.com;agdgfisioterapia@gmail.com;info@soulfisioterapia.com;clinicakorporea@yahoo.com;grupo_kit_mobile@2x.png;agdgfisioterapia@gmail.com;info@puertosalud.es;info@clinicaprismacoslada.com;osfisalud@gmail.com;info@andaclinic.com;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com;contacto@cosvitafisioterapia.com</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>281</v>
       </c>
@@ -3872,7 +3875,7 @@
         <v>infohabana@fisiolution.com;info@dfisio.com;info@kineyafisioterapia.com;centromove2be@gmail.com;info@fisiomotionsanse.com;agdgfisioterapia@gmail.com;info@soulfisioterapia.com;clinicakorporea@yahoo.com;grupo_kit_mobile@2x.png;agdgfisioterapia@gmail.com;info@puertosalud.es;info@clinicaprismacoslada.com;osfisalud@gmail.com;info@andaclinic.com;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com;contacto@cosvitafisioterapia.com;cmed_andromeda@yahoo.es</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>286</v>
       </c>
@@ -3899,7 +3902,7 @@
         <v>infohabana@fisiolution.com;info@dfisio.com;info@kineyafisioterapia.com;centromove2be@gmail.com;info@fisiomotionsanse.com;agdgfisioterapia@gmail.com;info@soulfisioterapia.com;clinicakorporea@yahoo.com;grupo_kit_mobile@2x.png;agdgfisioterapia@gmail.com;info@puertosalud.es;info@clinicaprismacoslada.com;osfisalud@gmail.com;info@andaclinic.com;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com;contacto@cosvitafisioterapia.com;cmed_andromeda@yahoo.es;info@fisioterapiasusanacobo.es</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>291</v>
       </c>
@@ -3926,7 +3929,7 @@
         <v>infohabana@fisiolution.com;info@dfisio.com;info@kineyafisioterapia.com;centromove2be@gmail.com;info@fisiomotionsanse.com;agdgfisioterapia@gmail.com;info@soulfisioterapia.com;clinicakorporea@yahoo.com;grupo_kit_mobile@2x.png;agdgfisioterapia@gmail.com;info@puertosalud.es;info@clinicaprismacoslada.com;osfisalud@gmail.com;info@andaclinic.com;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com;contacto@cosvitafisioterapia.com;cmed_andromeda@yahoo.es;info@fisioterapiasusanacobo.es;secretaria@fisiobronquial.com</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>296</v>
       </c>
@@ -3952,7 +3955,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>301</v>
       </c>
@@ -3979,7 +3982,7 @@
         <v>info@fisioterapiasernoe.es</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>306</v>
       </c>
@@ -4006,7 +4009,7 @@
         <v>info@fisioterapiasernoe.es;info@clinicaabla.com</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>311</v>
       </c>
@@ -4033,7 +4036,7 @@
         <v>info@fisioterapiasernoe.es;info@clinicaabla.com;hola@osteopatiazarco.com</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>316</v>
       </c>
@@ -4060,7 +4063,7 @@
         <v>info@fisioterapiasernoe.es;info@clinicaabla.com;hola@osteopatiazarco.com;info@roucofisioterapia.es</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>321</v>
       </c>
@@ -4087,7 +4090,7 @@
         <v>info@fisioterapiasernoe.es;info@clinicaabla.com;hola@osteopatiazarco.com;info@roucofisioterapia.es;info@pasosfisioterapia.com</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>326</v>
       </c>
@@ -4114,7 +4117,7 @@
         <v>info@fisioterapiasernoe.es;info@clinicaabla.com;hola@osteopatiazarco.com;info@roucofisioterapia.es;info@pasosfisioterapia.com;logopedia@clinicaemme.es</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>331</v>
       </c>
@@ -4141,7 +4144,7 @@
         <v>info@fisioterapiasernoe.es;info@clinicaabla.com;hola@osteopatiazarco.com;info@roucofisioterapia.es;info@pasosfisioterapia.com;logopedia@clinicaemme.es;info@fisiocasa.es</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>336</v>
       </c>
@@ -4168,7 +4171,7 @@
         <v>info@fisioterapiasernoe.es;info@clinicaabla.com;hola@osteopatiazarco.com;info@roucofisioterapia.es;info@pasosfisioterapia.com;logopedia@clinicaemme.es;info@fisiocasa.es;info@ergosalud.es</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>341</v>
       </c>
@@ -4195,7 +4198,7 @@
         <v>info@fisioterapiasernoe.es;info@clinicaabla.com;hola@osteopatiazarco.com;info@roucofisioterapia.es;info@pasosfisioterapia.com;logopedia@clinicaemme.es;info@fisiocasa.es;info@ergosalud.es;info@clinicaabla.com</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>345</v>
       </c>
@@ -4222,7 +4225,7 @@
         <v>info@fisioterapiasernoe.es;info@clinicaabla.com;hola@osteopatiazarco.com;info@roucofisioterapia.es;info@pasosfisioterapia.com;logopedia@clinicaemme.es;info@fisiocasa.es;info@ergosalud.es;info@clinicaabla.com;fisioinelite@gmail.com</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>350</v>
       </c>
@@ -4249,7 +4252,7 @@
         <v>info@fisioterapiasernoe.es;info@clinicaabla.com;hola@osteopatiazarco.com;info@roucofisioterapia.es;info@pasosfisioterapia.com;logopedia@clinicaemme.es;info@fisiocasa.es;info@ergosalud.es;info@clinicaabla.com;fisioinelite@gmail.com;info@texum.es</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>355</v>
       </c>
@@ -4276,7 +4279,7 @@
         <v>info@fisioterapiasernoe.es;info@clinicaabla.com;hola@osteopatiazarco.com;info@roucofisioterapia.es;info@pasosfisioterapia.com;logopedia@clinicaemme.es;info@fisiocasa.es;info@ergosalud.es;info@clinicaabla.com;fisioinelite@gmail.com;info@texum.es;info@clinicabaena.com</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>360</v>
       </c>
@@ -4303,7 +4306,7 @@
         <v>info@fisioterapiasernoe.es;info@clinicaabla.com;hola@osteopatiazarco.com;info@roucofisioterapia.es;info@pasosfisioterapia.com;logopedia@clinicaemme.es;info@fisiocasa.es;info@ergosalud.es;info@clinicaabla.com;fisioinelite@gmail.com;info@texum.es;info@clinicabaena.com;info.sanfernando@laphysiologie.es</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>365</v>
       </c>
@@ -4330,7 +4333,7 @@
         <v>info@fisioterapiasernoe.es;info@clinicaabla.com;hola@osteopatiazarco.com;info@roucofisioterapia.es;info@pasosfisioterapia.com;logopedia@clinicaemme.es;info@fisiocasa.es;info@ergosalud.es;info@clinicaabla.com;fisioinelite@gmail.com;info@texum.es;info@clinicabaena.com;info.sanfernando@laphysiologie.es;info@clinicaabla.com</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>367</v>
       </c>
@@ -4357,7 +4360,7 @@
         <v>info@fisioterapiasernoe.es;info@clinicaabla.com;hola@osteopatiazarco.com;info@roucofisioterapia.es;info@pasosfisioterapia.com;logopedia@clinicaemme.es;info@fisiocasa.es;info@ergosalud.es;info@clinicaabla.com;fisioinelite@gmail.com;info@texum.es;info@clinicabaena.com;info.sanfernando@laphysiologie.es;info@clinicaabla.com;contact@mysite.com</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>372</v>
       </c>
@@ -4384,7 +4387,7 @@
         <v>info@fisioterapiasernoe.es;info@clinicaabla.com;hola@osteopatiazarco.com;info@roucofisioterapia.es;info@pasosfisioterapia.com;logopedia@clinicaemme.es;info@fisiocasa.es;info@ergosalud.es;info@clinicaabla.com;fisioinelite@gmail.com;info@texum.es;info@clinicabaena.com;info.sanfernando@laphysiologie.es;info@clinicaabla.com;contact@mysite.com;info@fisioterapiaescalante.com</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>377</v>
       </c>
@@ -4411,7 +4414,7 @@
         <v>info@fisioterapiasernoe.es;info@clinicaabla.com;hola@osteopatiazarco.com;info@roucofisioterapia.es;info@pasosfisioterapia.com;logopedia@clinicaemme.es;info@fisiocasa.es;info@ergosalud.es;info@clinicaabla.com;fisioinelite@gmail.com;info@texum.es;info@clinicabaena.com;info.sanfernando@laphysiologie.es;info@clinicaabla.com;contact@mysite.com;info@fisioterapiaescalante.com;info@clinicaolivo.es</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>382</v>
       </c>
@@ -4438,7 +4441,7 @@
         <v>info@fisioterapiasernoe.es;info@clinicaabla.com;hola@osteopatiazarco.com;info@roucofisioterapia.es;info@pasosfisioterapia.com;logopedia@clinicaemme.es;info@fisiocasa.es;info@ergosalud.es;info@clinicaabla.com;fisioinelite@gmail.com;info@texum.es;info@clinicabaena.com;info.sanfernando@laphysiologie.es;info@clinicaabla.com;contact@mysite.com;info@fisioterapiaescalante.com;info@clinicaolivo.es;dpo@forus.es</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>387</v>
       </c>
@@ -4465,7 +4468,7 @@
         <v>info@fisioterapiasernoe.es;info@clinicaabla.com;hola@osteopatiazarco.com;info@roucofisioterapia.es;info@pasosfisioterapia.com;logopedia@clinicaemme.es;info@fisiocasa.es;info@ergosalud.es;info@clinicaabla.com;fisioinelite@gmail.com;info@texum.es;info@clinicabaena.com;info.sanfernando@laphysiologie.es;info@clinicaabla.com;contact@mysite.com;info@fisioterapiaescalante.com;info@clinicaolivo.es;dpo@forus.es;info@tressalud.com</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>392</v>
       </c>
@@ -4491,7 +4494,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>397</v>
       </c>
@@ -4513,12 +4516,12 @@
       <c r="G82" t="s">
         <v>233</v>
       </c>
-      <c r="H82" t="str">
+      <c r="H82" s="2" t="str">
         <f>E82</f>
         <v>info@centromandalu.es</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>402</v>
       </c>
@@ -4540,12 +4543,12 @@
       <c r="G83" t="s">
         <v>233</v>
       </c>
-      <c r="H83" t="str">
+      <c r="H83" s="2" t="str">
         <f t="shared" si="1"/>
         <v>info@centromandalu.es;acuosesnatural@gmail.com</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>407</v>
       </c>
@@ -4567,12 +4570,12 @@
       <c r="G84" t="s">
         <v>233</v>
       </c>
-      <c r="H84" t="str">
+      <c r="H84" s="2" t="str">
         <f t="shared" si="1"/>
         <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>412</v>
       </c>
@@ -4594,12 +4597,12 @@
       <c r="G85" t="s">
         <v>233</v>
       </c>
-      <c r="H85" t="str">
+      <c r="H85" s="2" t="str">
         <f t="shared" si="1"/>
         <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>417</v>
       </c>
@@ -4621,12 +4624,12 @@
       <c r="G86" t="s">
         <v>233</v>
       </c>
-      <c r="H86" t="str">
+      <c r="H86" s="2" t="str">
         <f t="shared" si="1"/>
         <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>286</v>
       </c>
@@ -4648,12 +4651,12 @@
       <c r="G87" t="s">
         <v>422</v>
       </c>
-      <c r="H87" t="str">
+      <c r="H87" s="2" t="str">
         <f t="shared" si="1"/>
         <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>423</v>
       </c>
@@ -4675,12 +4678,12 @@
       <c r="G88" t="s">
         <v>422</v>
       </c>
-      <c r="H88" t="str">
+      <c r="H88" s="2" t="str">
         <f t="shared" si="1"/>
         <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>336</v>
       </c>
@@ -4702,12 +4705,12 @@
       <c r="G89" t="s">
         <v>422</v>
       </c>
-      <c r="H89" t="str">
+      <c r="H89" s="2" t="str">
         <f t="shared" si="1"/>
         <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>321</v>
       </c>
@@ -4729,12 +4732,12 @@
       <c r="G90" t="s">
         <v>422</v>
       </c>
-      <c r="H90" t="str">
+      <c r="H90" s="2" t="str">
         <f t="shared" si="1"/>
         <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>428</v>
       </c>
@@ -4756,12 +4759,12 @@
       <c r="G91" t="s">
         <v>422</v>
       </c>
-      <c r="H91" t="str">
+      <c r="H91" s="2" t="str">
         <f t="shared" si="1"/>
         <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>433</v>
       </c>
@@ -4783,12 +4786,12 @@
       <c r="G92" t="s">
         <v>422</v>
       </c>
-      <c r="H92" t="str">
+      <c r="H92" s="2" t="str">
         <f t="shared" si="1"/>
         <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>438</v>
       </c>
@@ -4810,12 +4813,12 @@
       <c r="G93" t="s">
         <v>422</v>
       </c>
-      <c r="H93" t="str">
+      <c r="H93" s="2" t="str">
         <f t="shared" si="1"/>
         <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>428</v>
       </c>
@@ -4837,12 +4840,12 @@
       <c r="G94" t="s">
         <v>422</v>
       </c>
-      <c r="H94" t="str">
+      <c r="H94" s="2" t="str">
         <f t="shared" si="1"/>
         <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>445</v>
       </c>
@@ -4864,12 +4867,12 @@
       <c r="G95" t="s">
         <v>422</v>
       </c>
-      <c r="H95" t="str">
+      <c r="H95" s="2" t="str">
         <f t="shared" si="1"/>
         <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>448</v>
       </c>
@@ -4891,12 +4894,12 @@
       <c r="G96" t="s">
         <v>422</v>
       </c>
-      <c r="H96" t="str">
+      <c r="H96" s="2" t="str">
         <f t="shared" si="1"/>
         <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>453</v>
       </c>
@@ -4918,12 +4921,12 @@
       <c r="G97" t="s">
         <v>422</v>
       </c>
-      <c r="H97" t="str">
+      <c r="H97" s="2" t="str">
         <f t="shared" si="1"/>
         <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>458</v>
       </c>
@@ -4945,12 +4948,12 @@
       <c r="G98" t="s">
         <v>422</v>
       </c>
-      <c r="H98" t="str">
+      <c r="H98" s="2" t="str">
         <f t="shared" si="1"/>
         <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>463</v>
       </c>
@@ -4972,12 +4975,12 @@
       <c r="G99" t="s">
         <v>422</v>
       </c>
-      <c r="H99" t="str">
+      <c r="H99" s="2" t="str">
         <f t="shared" si="1"/>
         <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>468</v>
       </c>
@@ -4999,12 +5002,12 @@
       <c r="G100" t="s">
         <v>422</v>
       </c>
-      <c r="H100" t="str">
+      <c r="H100" s="2" t="str">
         <f t="shared" si="1"/>
         <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>473</v>
       </c>
@@ -5026,12 +5029,12 @@
       <c r="G101" t="s">
         <v>422</v>
       </c>
-      <c r="H101" t="str">
+      <c r="H101" s="2" t="str">
         <f t="shared" si="1"/>
         <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>478</v>
       </c>
@@ -5053,12 +5056,12 @@
       <c r="G102" t="s">
         <v>422</v>
       </c>
-      <c r="H102" t="str">
+      <c r="H102" s="2" t="str">
         <f t="shared" si="1"/>
         <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>483</v>
       </c>
@@ -5080,12 +5083,12 @@
       <c r="G103" t="s">
         <v>422</v>
       </c>
-      <c r="H103" t="str">
+      <c r="H103" s="2" t="str">
         <f t="shared" si="1"/>
         <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>239</v>
       </c>
@@ -5107,12 +5110,12 @@
       <c r="G104" t="s">
         <v>422</v>
       </c>
-      <c r="H104" t="str">
+      <c r="H104" s="2" t="str">
         <f t="shared" si="1"/>
         <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>488</v>
       </c>
@@ -5134,12 +5137,12 @@
       <c r="G105" t="s">
         <v>422</v>
       </c>
-      <c r="H105" t="str">
+      <c r="H105" s="2" t="str">
         <f t="shared" si="1"/>
         <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>493</v>
       </c>
@@ -5161,12 +5164,12 @@
       <c r="G106" t="s">
         <v>422</v>
       </c>
-      <c r="H106" t="str">
+      <c r="H106" s="2" t="str">
         <f t="shared" si="1"/>
         <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>498</v>
       </c>
@@ -5188,12 +5191,12 @@
       <c r="G107" t="s">
         <v>422</v>
       </c>
-      <c r="H107" t="str">
+      <c r="H107" s="2" t="str">
         <f t="shared" si="1"/>
         <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>503</v>
       </c>
@@ -5215,12 +5218,12 @@
       <c r="G108" t="s">
         <v>422</v>
       </c>
-      <c r="H108" t="str">
+      <c r="H108" s="2" t="str">
         <f t="shared" si="1"/>
         <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>508</v>
       </c>
@@ -5242,12 +5245,12 @@
       <c r="G109" t="s">
         <v>422</v>
       </c>
-      <c r="H109" t="str">
+      <c r="H109" s="2" t="str">
         <f t="shared" si="1"/>
         <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>234</v>
       </c>
@@ -5269,12 +5272,12 @@
       <c r="G110" t="s">
         <v>422</v>
       </c>
-      <c r="H110" t="str">
+      <c r="H110" s="2" t="str">
         <f t="shared" si="1"/>
         <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>387</v>
       </c>
@@ -5296,12 +5299,12 @@
       <c r="G111" t="s">
         <v>422</v>
       </c>
-      <c r="H111" t="str">
+      <c r="H111" s="2" t="str">
         <f t="shared" si="1"/>
         <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>513</v>
       </c>
@@ -5323,12 +5326,12 @@
       <c r="G112" t="s">
         <v>422</v>
       </c>
-      <c r="H112" t="str">
+      <c r="H112" s="2" t="str">
         <f t="shared" si="1"/>
         <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>518</v>
       </c>
@@ -5350,12 +5353,12 @@
       <c r="G113" t="s">
         <v>422</v>
       </c>
-      <c r="H113" t="str">
+      <c r="H113" s="2" t="str">
         <f t="shared" si="1"/>
         <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>523</v>
       </c>
@@ -5377,12 +5380,12 @@
       <c r="G114" t="s">
         <v>422</v>
       </c>
-      <c r="H114" t="str">
+      <c r="H114" s="2" t="str">
         <f t="shared" si="1"/>
         <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es;info@afisionatemadrid.com</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>528</v>
       </c>
@@ -5404,12 +5407,12 @@
       <c r="G115" t="s">
         <v>422</v>
       </c>
-      <c r="H115" t="str">
+      <c r="H115" s="2" t="str">
         <f t="shared" si="1"/>
         <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es;info@afisionatemadrid.com;contactofisioalmat@fisioterapiamadrid.net</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>533</v>
       </c>
@@ -5431,12 +5434,12 @@
       <c r="G116" t="s">
         <v>422</v>
       </c>
-      <c r="H116" t="str">
+      <c r="H116" s="2" t="str">
         <f t="shared" si="1"/>
         <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es;info@afisionatemadrid.com;contactofisioalmat@fisioterapiamadrid.net;flags@2x.webp</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>538</v>
       </c>
@@ -5458,12 +5461,12 @@
       <c r="G117" t="s">
         <v>422</v>
       </c>
-      <c r="H117" t="str">
+      <c r="H117" s="2" t="str">
         <f t="shared" si="1"/>
         <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es;info@afisionatemadrid.com;contactofisioalmat@fisioterapiamadrid.net;flags@2x.webp;info@fisiomadrid21.com</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>543</v>
       </c>
@@ -5485,12 +5488,12 @@
       <c r="G118" t="s">
         <v>422</v>
       </c>
-      <c r="H118" t="str">
+      <c r="H118" s="2" t="str">
         <f t="shared" si="1"/>
         <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es;info@afisionatemadrid.com;contactofisioalmat@fisioterapiamadrid.net;flags@2x.webp;info@fisiomadrid21.com;info@acfisio.es</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>548</v>
       </c>
@@ -5512,12 +5515,12 @@
       <c r="G119" t="s">
         <v>422</v>
       </c>
-      <c r="H119" t="str">
+      <c r="H119" s="2" t="str">
         <f t="shared" si="1"/>
         <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es;info@afisionatemadrid.com;contactofisioalmat@fisioterapiamadrid.net;flags@2x.webp;info@fisiomadrid21.com;info@acfisio.es;info@clinicarozalen.com</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>553</v>
       </c>
@@ -5539,12 +5542,12 @@
       <c r="G120" t="s">
         <v>422</v>
       </c>
-      <c r="H120" t="str">
+      <c r="H120" s="2" t="str">
         <f t="shared" si="1"/>
         <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es;info@afisionatemadrid.com;contactofisioalmat@fisioterapiamadrid.net;flags@2x.webp;info@fisiomadrid21.com;info@acfisio.es;info@clinicarozalen.com;info@medicalr2.es</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>558</v>
       </c>
@@ -5566,12 +5569,11 @@
       <c r="G121" t="s">
         <v>422</v>
       </c>
-      <c r="H121" t="str">
-        <f t="shared" si="1"/>
-        <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es;info@afisionatemadrid.com;contactofisioalmat@fisioterapiamadrid.net;flags@2x.webp;info@fisiomadrid21.com;info@acfisio.es;info@clinicarozalen.com;info@medicalr2.es;info@fisio-especialistas.com</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H121" s="2" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>563</v>
       </c>
@@ -5594,11 +5596,11 @@
         <v>422</v>
       </c>
       <c r="H122" t="str">
-        <f t="shared" si="1"/>
-        <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es;info@afisionatemadrid.com;contactofisioalmat@fisioterapiamadrid.net;flags@2x.webp;info@fisiomadrid21.com;info@acfisio.es;info@clinicarozalen.com;info@medicalr2.es;info@fisio-especialistas.com;info.caamano@clinicash3.es</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+        <f>E122</f>
+        <v>info.caamano@clinicash3.es</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>568</v>
       </c>
@@ -5622,10 +5624,10 @@
       </c>
       <c r="H123" t="str">
         <f t="shared" si="1"/>
-        <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es;info@afisionatemadrid.com;contactofisioalmat@fisioterapiamadrid.net;flags@2x.webp;info@fisiomadrid21.com;info@acfisio.es;info@clinicarozalen.com;info@medicalr2.es;info@fisio-especialistas.com;info.caamano@clinicash3.es;info@fisioavanzadelicias.com</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+        <v>info.caamano@clinicash3.es;info@fisioavanzadelicias.com</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>252</v>
       </c>
@@ -5649,10 +5651,10 @@
       </c>
       <c r="H124" t="str">
         <f t="shared" si="1"/>
-        <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es;info@afisionatemadrid.com;contactofisioalmat@fisioterapiamadrid.net;flags@2x.webp;info@fisiomadrid21.com;info@acfisio.es;info@clinicarozalen.com;info@medicalr2.es;info@fisio-especialistas.com;info.caamano@clinicash3.es;info@fisioavanzadelicias.com;info@puertosalud.es</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+        <v>info.caamano@clinicash3.es;info@fisioavanzadelicias.com;info@puertosalud.es</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>331</v>
       </c>
@@ -5676,10 +5678,10 @@
       </c>
       <c r="H125" t="str">
         <f t="shared" si="1"/>
-        <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es;info@afisionatemadrid.com;contactofisioalmat@fisioterapiamadrid.net;flags@2x.webp;info@fisiomadrid21.com;info@acfisio.es;info@clinicarozalen.com;info@medicalr2.es;info@fisio-especialistas.com;info.caamano@clinicash3.es;info@fisioavanzadelicias.com;info@puertosalud.es;info@fisiocasa.es</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+        <v>info.caamano@clinicash3.es;info@fisioavanzadelicias.com;info@puertosalud.es;info@fisiocasa.es</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>573</v>
       </c>
@@ -5703,10 +5705,10 @@
       </c>
       <c r="H126" t="str">
         <f t="shared" si="1"/>
-        <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es;info@afisionatemadrid.com;contactofisioalmat@fisioterapiamadrid.net;flags@2x.webp;info@fisiomadrid21.com;info@acfisio.es;info@clinicarozalen.com;info@medicalr2.es;info@fisio-especialistas.com;info.caamano@clinicash3.es;info@fisioavanzadelicias.com;info@puertosalud.es;info@fisiocasa.es;fisioterapia@eduveiga.es</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+        <v>info.caamano@clinicash3.es;info@fisioavanzadelicias.com;info@puertosalud.es;info@fisiocasa.es;fisioterapia@eduveiga.es</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>578</v>
       </c>
@@ -5730,10 +5732,10 @@
       </c>
       <c r="H127" t="str">
         <f t="shared" si="1"/>
-        <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es;info@afisionatemadrid.com;contactofisioalmat@fisioterapiamadrid.net;flags@2x.webp;info@fisiomadrid21.com;info@acfisio.es;info@clinicarozalen.com;info@medicalr2.es;info@fisio-especialistas.com;info.caamano@clinicash3.es;info@fisioavanzadelicias.com;info@puertosalud.es;info@fisiocasa.es;fisioterapia@eduveiga.es;fisioterapiamadridrio@gmail.com</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+        <v>info.caamano@clinicash3.es;info@fisioavanzadelicias.com;info@puertosalud.es;info@fisiocasa.es;fisioterapia@eduveiga.es;fisioterapiamadridrio@gmail.com</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>488</v>
       </c>
@@ -5757,10 +5759,10 @@
       </c>
       <c r="H128" t="str">
         <f t="shared" si="1"/>
-        <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es;info@afisionatemadrid.com;contactofisioalmat@fisioterapiamadrid.net;flags@2x.webp;info@fisiomadrid21.com;info@acfisio.es;info@clinicarozalen.com;info@medicalr2.es;info@fisio-especialistas.com;info.caamano@clinicash3.es;info@fisioavanzadelicias.com;info@puertosalud.es;info@fisiocasa.es;fisioterapia@eduveiga.es;fisioterapiamadridrio@gmail.com;info@estudiofisio.es</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+        <v>info.caamano@clinicash3.es;info@fisioavanzadelicias.com;info@puertosalud.es;info@fisiocasa.es;fisioterapia@eduveiga.es;fisioterapiamadridrio@gmail.com;info@estudiofisio.es</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>586</v>
       </c>
@@ -5784,10 +5786,10 @@
       </c>
       <c r="H129" t="str">
         <f t="shared" si="1"/>
-        <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es;info@afisionatemadrid.com;contactofisioalmat@fisioterapiamadrid.net;flags@2x.webp;info@fisiomadrid21.com;info@acfisio.es;info@clinicarozalen.com;info@medicalr2.es;info@fisio-especialistas.com;info.caamano@clinicash3.es;info@fisioavanzadelicias.com;info@puertosalud.es;info@fisiocasa.es;fisioterapia@eduveiga.es;fisioterapiamadridrio@gmail.com;info@estudiofisio.es;info@ftmmadrid.com</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+        <v>info.caamano@clinicash3.es;info@fisioavanzadelicias.com;info@puertosalud.es;info@fisiocasa.es;fisioterapia@eduveiga.es;fisioterapiamadridrio@gmail.com;info@estudiofisio.es;info@ftmmadrid.com</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>367</v>
       </c>
@@ -5811,10 +5813,10 @@
       </c>
       <c r="H130" t="str">
         <f t="shared" si="1"/>
-        <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es;info@afisionatemadrid.com;contactofisioalmat@fisioterapiamadrid.net;flags@2x.webp;info@fisiomadrid21.com;info@acfisio.es;info@clinicarozalen.com;info@medicalr2.es;info@fisio-especialistas.com;info.caamano@clinicash3.es;info@fisioavanzadelicias.com;info@puertosalud.es;info@fisiocasa.es;fisioterapia@eduveiga.es;fisioterapiamadridrio@gmail.com;info@estudiofisio.es;info@ftmmadrid.com;contact@mysite.com</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+        <v>info.caamano@clinicash3.es;info@fisioavanzadelicias.com;info@puertosalud.es;info@fisiocasa.es;fisioterapia@eduveiga.es;fisioterapiamadridrio@gmail.com;info@estudiofisio.es;info@ftmmadrid.com;contact@mysite.com</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>591</v>
       </c>
@@ -5838,10 +5840,10 @@
       </c>
       <c r="H131" t="str">
         <f t="shared" si="1"/>
-        <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es;info@afisionatemadrid.com;contactofisioalmat@fisioterapiamadrid.net;flags@2x.webp;info@fisiomadrid21.com;info@acfisio.es;info@clinicarozalen.com;info@medicalr2.es;info@fisio-especialistas.com;info.caamano@clinicash3.es;info@fisioavanzadelicias.com;info@puertosalud.es;info@fisiocasa.es;fisioterapia@eduveiga.es;fisioterapiamadridrio@gmail.com;info@estudiofisio.es;info@ftmmadrid.com;contact@mysite.com;hola@fisiowhite.com</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+        <v>info.caamano@clinicash3.es;info@fisioavanzadelicias.com;info@puertosalud.es;info@fisiocasa.es;fisioterapia@eduveiga.es;fisioterapiamadridrio@gmail.com;info@estudiofisio.es;info@ftmmadrid.com;contact@mysite.com;hola@fisiowhite.com</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>596</v>
       </c>
@@ -5865,10 +5867,10 @@
       </c>
       <c r="H132" t="str">
         <f t="shared" ref="H132:H138" si="2">H131&amp;";"&amp;E132</f>
-        <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es;info@afisionatemadrid.com;contactofisioalmat@fisioterapiamadrid.net;flags@2x.webp;info@fisiomadrid21.com;info@acfisio.es;info@clinicarozalen.com;info@medicalr2.es;info@fisio-especialistas.com;info.caamano@clinicash3.es;info@fisioavanzadelicias.com;info@puertosalud.es;info@fisiocasa.es;fisioterapia@eduveiga.es;fisioterapiamadridrio@gmail.com;info@estudiofisio.es;info@ftmmadrid.com;contact@mysite.com;hola@fisiowhite.com;info@clinicario.es</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+        <v>info.caamano@clinicash3.es;info@fisioavanzadelicias.com;info@puertosalud.es;info@fisiocasa.es;fisioterapia@eduveiga.es;fisioterapiamadridrio@gmail.com;info@estudiofisio.es;info@ftmmadrid.com;contact@mysite.com;hola@fisiowhite.com;info@clinicario.es</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>601</v>
       </c>
@@ -5892,10 +5894,10 @@
       </c>
       <c r="H133" t="str">
         <f t="shared" si="2"/>
-        <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es;info@afisionatemadrid.com;contactofisioalmat@fisioterapiamadrid.net;flags@2x.webp;info@fisiomadrid21.com;info@acfisio.es;info@clinicarozalen.com;info@medicalr2.es;info@fisio-especialistas.com;info.caamano@clinicash3.es;info@fisioavanzadelicias.com;info@puertosalud.es;info@fisiocasa.es;fisioterapia@eduveiga.es;fisioterapiamadridrio@gmail.com;info@estudiofisio.es;info@ftmmadrid.com;contact@mysite.com;hola@fisiowhite.com;info@clinicario.es;info@masfisio.es</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+        <v>info.caamano@clinicash3.es;info@fisioavanzadelicias.com;info@puertosalud.es;info@fisiocasa.es;fisioterapia@eduveiga.es;fisioterapiamadridrio@gmail.com;info@estudiofisio.es;info@ftmmadrid.com;contact@mysite.com;hola@fisiowhite.com;info@clinicario.es;info@masfisio.es</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>606</v>
       </c>
@@ -5919,10 +5921,10 @@
       </c>
       <c r="H134" t="str">
         <f t="shared" si="2"/>
-        <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es;info@afisionatemadrid.com;contactofisioalmat@fisioterapiamadrid.net;flags@2x.webp;info@fisiomadrid21.com;info@acfisio.es;info@clinicarozalen.com;info@medicalr2.es;info@fisio-especialistas.com;info.caamano@clinicash3.es;info@fisioavanzadelicias.com;info@puertosalud.es;info@fisiocasa.es;fisioterapia@eduveiga.es;fisioterapiamadridrio@gmail.com;info@estudiofisio.es;info@ftmmadrid.com;contact@mysite.com;hola@fisiowhite.com;info@clinicario.es;info@masfisio.es;info@theclinicstudio.es</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+        <v>info.caamano@clinicash3.es;info@fisioavanzadelicias.com;info@puertosalud.es;info@fisiocasa.es;fisioterapia@eduveiga.es;fisioterapiamadridrio@gmail.com;info@estudiofisio.es;info@ftmmadrid.com;contact@mysite.com;hola@fisiowhite.com;info@clinicario.es;info@masfisio.es;info@theclinicstudio.es</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>611</v>
       </c>
@@ -5946,10 +5948,10 @@
       </c>
       <c r="H135" t="str">
         <f t="shared" si="2"/>
-        <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es;info@afisionatemadrid.com;contactofisioalmat@fisioterapiamadrid.net;flags@2x.webp;info@fisiomadrid21.com;info@acfisio.es;info@clinicarozalen.com;info@medicalr2.es;info@fisio-especialistas.com;info.caamano@clinicash3.es;info@fisioavanzadelicias.com;info@puertosalud.es;info@fisiocasa.es;fisioterapia@eduveiga.es;fisioterapiamadridrio@gmail.com;info@estudiofisio.es;info@ftmmadrid.com;contact@mysite.com;hola@fisiowhite.com;info@clinicario.es;info@masfisio.es;info@theclinicstudio.es;contacto@drfisio.es</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+        <v>info.caamano@clinicash3.es;info@fisioavanzadelicias.com;info@puertosalud.es;info@fisiocasa.es;fisioterapia@eduveiga.es;fisioterapiamadridrio@gmail.com;info@estudiofisio.es;info@ftmmadrid.com;contact@mysite.com;hola@fisiowhite.com;info@clinicario.es;info@masfisio.es;info@theclinicstudio.es;contacto@drfisio.es</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>616</v>
       </c>
@@ -5973,10 +5975,10 @@
       </c>
       <c r="H136" t="str">
         <f t="shared" si="2"/>
-        <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es;info@afisionatemadrid.com;contactofisioalmat@fisioterapiamadrid.net;flags@2x.webp;info@fisiomadrid21.com;info@acfisio.es;info@clinicarozalen.com;info@medicalr2.es;info@fisio-especialistas.com;info.caamano@clinicash3.es;info@fisioavanzadelicias.com;info@puertosalud.es;info@fisiocasa.es;fisioterapia@eduveiga.es;fisioterapiamadridrio@gmail.com;info@estudiofisio.es;info@ftmmadrid.com;contact@mysite.com;hola@fisiowhite.com;info@clinicario.es;info@masfisio.es;info@theclinicstudio.es;contacto@drfisio.es;consultas@fisioterapiasantos.es</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+        <v>info.caamano@clinicash3.es;info@fisioavanzadelicias.com;info@puertosalud.es;info@fisiocasa.es;fisioterapia@eduveiga.es;fisioterapiamadridrio@gmail.com;info@estudiofisio.es;info@ftmmadrid.com;contact@mysite.com;hola@fisiowhite.com;info@clinicario.es;info@masfisio.es;info@theclinicstudio.es;contacto@drfisio.es;consultas@fisioterapiasantos.es</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>621</v>
       </c>
@@ -6000,10 +6002,10 @@
       </c>
       <c r="H137" t="str">
         <f t="shared" si="2"/>
-        <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es;info@afisionatemadrid.com;contactofisioalmat@fisioterapiamadrid.net;flags@2x.webp;info@fisiomadrid21.com;info@acfisio.es;info@clinicarozalen.com;info@medicalr2.es;info@fisio-especialistas.com;info.caamano@clinicash3.es;info@fisioavanzadelicias.com;info@puertosalud.es;info@fisiocasa.es;fisioterapia@eduveiga.es;fisioterapiamadridrio@gmail.com;info@estudiofisio.es;info@ftmmadrid.com;contact@mysite.com;hola@fisiowhite.com;info@clinicario.es;info@masfisio.es;info@theclinicstudio.es;contacto@drfisio.es;consultas@fisioterapiasantos.es;contacto@fisioterapiavelazquez22.es</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+        <v>info.caamano@clinicash3.es;info@fisioavanzadelicias.com;info@puertosalud.es;info@fisiocasa.es;fisioterapia@eduveiga.es;fisioterapiamadridrio@gmail.com;info@estudiofisio.es;info@ftmmadrid.com;contact@mysite.com;hola@fisiowhite.com;info@clinicario.es;info@masfisio.es;info@theclinicstudio.es;contacto@drfisio.es;consultas@fisioterapiasantos.es;contacto@fisioterapiavelazquez22.es</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>626</v>
       </c>
@@ -6027,7 +6029,7 @@
       </c>
       <c r="H138" t="str">
         <f t="shared" si="2"/>
-        <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es;info@afisionatemadrid.com;contactofisioalmat@fisioterapiamadrid.net;flags@2x.webp;info@fisiomadrid21.com;info@acfisio.es;info@clinicarozalen.com;info@medicalr2.es;info@fisio-especialistas.com;info.caamano@clinicash3.es;info@fisioavanzadelicias.com;info@puertosalud.es;info@fisiocasa.es;fisioterapia@eduveiga.es;fisioterapiamadridrio@gmail.com;info@estudiofisio.es;info@ftmmadrid.com;contact@mysite.com;hola@fisiowhite.com;info@clinicario.es;info@masfisio.es;info@theclinicstudio.es;contacto@drfisio.es;consultas@fisioterapiasantos.es;contacto@fisioterapiavelazquez22.es;info@fisioescenica.com</v>
+        <v>info.caamano@clinicash3.es;info@fisioavanzadelicias.com;info@puertosalud.es;info@fisiocasa.es;fisioterapia@eduveiga.es;fisioterapiamadridrio@gmail.com;info@estudiofisio.es;info@ftmmadrid.com;contact@mysite.com;hola@fisiowhite.com;info@clinicario.es;info@masfisio.es;info@theclinicstudio.es;contacto@drfisio.es;consultas@fisioterapiasantos.es;contacto@fisioterapiavelazquez22.es;info@fisioescenica.com</v>
       </c>
     </row>
   </sheetData>

--- a/data/3.Fisioterapia/leads_Fisioterapia_completo.xlsx
+++ b/data/3.Fisioterapia/leads_Fisioterapia_completo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/06ae8d044cc0a8d9/Documentos/GitHub/Leads_sheacher/data/3.Fisioterapia/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejgar\OneDrive\Documentos\GitHub\Leads_sheacher\data\3.Fisioterapia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{BAFC9D06-01F9-4528-BBAF-4D1B383CE318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E440A48-4FA1-453F-AC89-CD3D99D54E47}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464E8440-7446-4589-B479-19ED6E2BC972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="638">
   <si>
     <t>Nombre</t>
   </si>
@@ -1938,13 +1938,22 @@
   </si>
   <si>
     <t>info@fisioterapiasernoe.es;info@clinicaabla.com;hola@osteopatiazarco.com;info@roucofisioterapia.es;info@pasosfisioterapia.com;logopedia@clinicaemme.es;info@fisiocasa.es;info@ergosalud.es;info@clinicaabla.com;fisioinelite@gmail.com;info@texum.es;info@clinicabaena.com;info.sanfernando@laphysiologie.es;info@clinicaabla.com;contact@mysite.com;info@fisioterapiaescalante.com;info@clinicaolivo.es;dpo@forus.es;info@tressalud.com;daniel.anson@osteomagicmadrid.com</t>
+  </si>
+  <si>
+    <t>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com</t>
+  </si>
+  <si>
+    <t>info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es;info@afisionatemadrid.com;contactofisioalmat@fisioterapiamadrid.net;flags@2x.webp;info@fisiomadrid21.com;info@acfisio.es;info@clinicarozalen.com;info@medicalr2.es;info@fisio-especialistas.com</t>
+  </si>
+  <si>
+    <t>info.caamano@clinicash3.es;info@fisioavanzadelicias.com;info@puertosalud.es;info@fisiocasa.es;fisioterapia@eduveiga.es;fisioterapiamadridrio@gmail.com;info@estudiofisio.es;info@ftmmadrid.com;contact@mysite.com;hola@fisiowhite.com;info@clinicario.es;info@masfisio.es;info@theclinicstudio.es;contacto@drfisio.es;consultas@fisioterapiasantos.es;contacto@fisioterapiavelazquez22.es;info@fisioescenica.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1956,6 +1965,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1996,17 +2013,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2309,13 +2329,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="H82" sqref="H82"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="K122" sqref="K122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2338,7 +2358,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2365,7 +2385,7 @@
         <v>info@fisioterapia-alcobendas.com</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2392,7 +2412,7 @@
         <v>info@fisioterapia-alcobendas.com;alcofisio@fisioterapiaenalcobendas.es</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -2419,7 +2439,7 @@
         <v>info@fisioterapia-alcobendas.com;alcofisio@fisioterapiaenalcobendas.es;alcobendas@fisioweb.com</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -2446,7 +2466,7 @@
         <v>info@fisioterapia-alcobendas.com;alcofisio@fisioterapiaenalcobendas.es;alcobendas@fisioweb.com;cliniccaremadrid@gmail.com</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -2473,7 +2493,7 @@
         <v>info@fisioterapia-alcobendas.com;alcofisio@fisioterapiaenalcobendas.es;alcobendas@fisioweb.com;cliniccaremadrid@gmail.com;info.madrid@fisio-clinics.com</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -2500,7 +2520,7 @@
         <v>info@fisioterapia-alcobendas.com;alcofisio@fisioterapiaenalcobendas.es;alcobendas@fisioweb.com;cliniccaremadrid@gmail.com;info.madrid@fisio-clinics.com;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -2527,7 +2547,7 @@
         <v>info@fisioterapia-alcobendas.com;alcofisio@fisioterapiaenalcobendas.es;alcobendas@fisioweb.com;cliniccaremadrid@gmail.com;info.madrid@fisio-clinics.com;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com;cfalcobendas@fisiogestion.com</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -2554,7 +2574,7 @@
         <v>info@fisioterapia-alcobendas.com;alcofisio@fisioterapiaenalcobendas.es;alcobendas@fisioweb.com;cliniccaremadrid@gmail.com;info.madrid@fisio-clinics.com;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com;cfalcobendas@fisiogestion.com;clinicaoseo@gmail.com</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -2581,7 +2601,7 @@
         <v>info@fisioterapia-alcobendas.com;alcofisio@fisioterapiaenalcobendas.es;alcobendas@fisioweb.com;cliniccaremadrid@gmail.com;info.madrid@fisio-clinics.com;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com;cfalcobendas@fisiogestion.com;clinicaoseo@gmail.com;info@fisioterapialavega.com</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -2608,7 +2628,7 @@
         <v>info@fisioterapia-alcobendas.com;alcofisio@fisioterapiaenalcobendas.es;alcobendas@fisioweb.com;cliniccaremadrid@gmail.com;info.madrid@fisio-clinics.com;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com;cfalcobendas@fisiogestion.com;clinicaoseo@gmail.com;info@fisioterapialavega.com;aramendiasalud@gmail.com</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>59</v>
       </c>
@@ -2635,7 +2655,7 @@
         <v>info@fisioterapia-alcobendas.com;alcofisio@fisioterapiaenalcobendas.es;alcobendas@fisioweb.com;cliniccaremadrid@gmail.com;info.madrid@fisio-clinics.com;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com;cfalcobendas@fisiogestion.com;clinicaoseo@gmail.com;info@fisioterapialavega.com;aramendiasalud@gmail.com;info@onfisioterapia.com</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -2662,7 +2682,7 @@
         <v>info@fisioterapia-alcobendas.com;alcofisio@fisioterapiaenalcobendas.es;alcobendas@fisioweb.com;cliniccaremadrid@gmail.com;info.madrid@fisio-clinics.com;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com;cfalcobendas@fisiogestion.com;clinicaoseo@gmail.com;info@fisioterapialavega.com;aramendiasalud@gmail.com;info@onfisioterapia.com;info@fisioterapialamoraleja.com</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>69</v>
       </c>
@@ -2689,7 +2709,7 @@
         <v>info@fisioterapia-alcobendas.com;alcofisio@fisioterapiaenalcobendas.es;alcobendas@fisioweb.com;cliniccaremadrid@gmail.com;info.madrid@fisio-clinics.com;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com;cfalcobendas@fisiogestion.com;clinicaoseo@gmail.com;info@fisioterapialavega.com;aramendiasalud@gmail.com;info@onfisioterapia.com;info@fisioterapialamoraleja.com;fisioactiv@fisio-activ.es</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>74</v>
       </c>
@@ -2716,7 +2736,7 @@
         <v>info@fisioterapia-alcobendas.com;alcofisio@fisioterapiaenalcobendas.es;alcobendas@fisioweb.com;cliniccaremadrid@gmail.com;info.madrid@fisio-clinics.com;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com;cfalcobendas@fisiogestion.com;clinicaoseo@gmail.com;info@fisioterapialavega.com;aramendiasalud@gmail.com;info@onfisioterapia.com;info@fisioterapialamoraleja.com;fisioactiv@fisio-activ.es;clinicanarro@hotmail.com</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>79</v>
       </c>
@@ -2743,7 +2763,7 @@
         <v>info@fisioterapia-alcobendas.com;alcofisio@fisioterapiaenalcobendas.es;alcobendas@fisioweb.com;cliniccaremadrid@gmail.com;info.madrid@fisio-clinics.com;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com;cfalcobendas@fisiogestion.com;clinicaoseo@gmail.com;info@fisioterapialavega.com;aramendiasalud@gmail.com;info@onfisioterapia.com;info@fisioterapialamoraleja.com;fisioactiv@fisio-activ.es;clinicanarro@hotmail.com;info.madrid@fisio-clinics.com</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>80</v>
       </c>
@@ -2770,7 +2790,7 @@
         <v>info@fisioterapia-alcobendas.com;alcofisio@fisioterapiaenalcobendas.es;alcobendas@fisioweb.com;cliniccaremadrid@gmail.com;info.madrid@fisio-clinics.com;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com;cfalcobendas@fisiogestion.com;clinicaoseo@gmail.com;info@fisioterapialavega.com;aramendiasalud@gmail.com;info@onfisioterapia.com;info@fisioterapialamoraleja.com;fisioactiv@fisio-activ.es;clinicanarro@hotmail.com;info.madrid@fisio-clinics.com;alcobendas@clinicaelvia.com</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -2797,7 +2817,7 @@
         <v>info@fisioterapia-alcobendas.com;alcofisio@fisioterapiaenalcobendas.es;alcobendas@fisioweb.com;cliniccaremadrid@gmail.com;info.madrid@fisio-clinics.com;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com;cfalcobendas@fisiogestion.com;clinicaoseo@gmail.com;info@fisioterapialavega.com;aramendiasalud@gmail.com;info@onfisioterapia.com;info@fisioterapialamoraleja.com;fisioactiv@fisio-activ.es;clinicanarro@hotmail.com;info.madrid@fisio-clinics.com;alcobendas@clinicaelvia.com;clinicazoe@clinicazoe.com</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>90</v>
       </c>
@@ -2824,7 +2844,7 @@
         <v>info@fisioterapia-alcobendas.com;alcofisio@fisioterapiaenalcobendas.es;alcobendas@fisioweb.com;cliniccaremadrid@gmail.com;info.madrid@fisio-clinics.com;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com;cfalcobendas@fisiogestion.com;clinicaoseo@gmail.com;info@fisioterapialavega.com;aramendiasalud@gmail.com;info@onfisioterapia.com;info@fisioterapialamoraleja.com;fisioactiv@fisio-activ.es;clinicanarro@hotmail.com;info.madrid@fisio-clinics.com;alcobendas@clinicaelvia.com;clinicazoe@clinicazoe.com;aliciafisioterapiamadrid@gmail.com</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>95</v>
       </c>
@@ -2851,7 +2871,7 @@
         <v>info@fisioterapia-alcobendas.com;alcofisio@fisioterapiaenalcobendas.es;alcobendas@fisioweb.com;cliniccaremadrid@gmail.com;info.madrid@fisio-clinics.com;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com;cfalcobendas@fisiogestion.com;clinicaoseo@gmail.com;info@fisioterapialavega.com;aramendiasalud@gmail.com;info@onfisioterapia.com;info@fisioterapialamoraleja.com;fisioactiv@fisio-activ.es;clinicanarro@hotmail.com;info.madrid@fisio-clinics.com;alcobendas@clinicaelvia.com;clinicazoe@clinicazoe.com;aliciafisioterapiamadrid@gmail.com;info@clinicaimprove.es</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>100</v>
       </c>
@@ -2877,7 +2897,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>105</v>
       </c>
@@ -2904,7 +2924,7 @@
         <v>hola@inimarehabilitacion.com</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -2931,7 +2951,7 @@
         <v>hola@inimarehabilitacion.com;salud@sputnikclimbing.com</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>115</v>
       </c>
@@ -2958,7 +2978,7 @@
         <v>hola@inimarehabilitacion.com;salud@sputnikclimbing.com;administracion@renuevat.es</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>120</v>
       </c>
@@ -2985,7 +3005,7 @@
         <v>hola@inimarehabilitacion.com;salud@sputnikclimbing.com;administracion@renuevat.es;clinicaolivaralcobendas@gmail.com</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>125</v>
       </c>
@@ -3012,7 +3032,7 @@
         <v>hola@inimarehabilitacion.com;salud@sputnikclimbing.com;administracion@renuevat.es;clinicaolivaralcobendas@gmail.com;info@fisioterapiaequilybrium.es</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>130</v>
       </c>
@@ -3039,7 +3059,7 @@
         <v>hola@inimarehabilitacion.com;salud@sputnikclimbing.com;administracion@renuevat.es;clinicaolivaralcobendas@gmail.com;info@fisioterapiaequilybrium.es;info@zenther.com</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>135</v>
       </c>
@@ -3066,7 +3086,7 @@
         <v>hola@inimarehabilitacion.com;salud@sputnikclimbing.com;administracion@renuevat.es;clinicaolivaralcobendas@gmail.com;info@fisioterapiaequilybrium.es;info@zenther.com;jfcollin00@gmail.com</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>140</v>
       </c>
@@ -3093,7 +3113,7 @@
         <v>hola@inimarehabilitacion.com;salud@sputnikclimbing.com;administracion@renuevat.es;clinicaolivaralcobendas@gmail.com;info@fisioterapiaequilybrium.es;info@zenther.com;jfcollin00@gmail.com;clinica@centroclinicolachopera.com</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>145</v>
       </c>
@@ -3120,7 +3140,7 @@
         <v>hola@inimarehabilitacion.com;salud@sputnikclimbing.com;administracion@renuevat.es;clinicaolivaralcobendas@gmail.com;info@fisioterapiaequilybrium.es;info@zenther.com;jfcollin00@gmail.com;clinica@centroclinicolachopera.com;info@fisioterapiasacral.com</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>150</v>
       </c>
@@ -3147,7 +3167,7 @@
         <v>hola@inimarehabilitacion.com;salud@sputnikclimbing.com;administracion@renuevat.es;clinicaolivaralcobendas@gmail.com;info@fisioterapiaequilybrium.es;info@zenther.com;jfcollin00@gmail.com;clinica@centroclinicolachopera.com;info@fisioterapiasacral.com;info@fisiocore.net</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>155</v>
       </c>
@@ -3174,7 +3194,7 @@
         <v>hola@inimarehabilitacion.com;salud@sputnikclimbing.com;administracion@renuevat.es;clinicaolivaralcobendas@gmail.com;info@fisioterapiaequilybrium.es;info@zenther.com;jfcollin00@gmail.com;clinica@centroclinicolachopera.com;info@fisioterapiasacral.com;info@fisiocore.net;fisiociclica.sandra@gmail.com</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>160</v>
       </c>
@@ -3201,7 +3221,7 @@
         <v>hola@inimarehabilitacion.com;salud@sputnikclimbing.com;administracion@renuevat.es;clinicaolivaralcobendas@gmail.com;info@fisioterapiaequilybrium.es;info@zenther.com;jfcollin00@gmail.com;clinica@centroclinicolachopera.com;info@fisioterapiasacral.com;info@fisiocore.net;fisiociclica.sandra@gmail.com;sansebastian@fisioweb.com</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>165</v>
       </c>
@@ -3228,7 +3248,7 @@
         <v>hola@inimarehabilitacion.com;salud@sputnikclimbing.com;administracion@renuevat.es;clinicaolivaralcobendas@gmail.com;info@fisioterapiaequilybrium.es;info@zenther.com;jfcollin00@gmail.com;clinica@centroclinicolachopera.com;info@fisioterapiasacral.com;info@fisiocore.net;fisiociclica.sandra@gmail.com;sansebastian@fisioweb.com;cjfisioterapeutas@gmail.com</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>170</v>
       </c>
@@ -3255,7 +3275,7 @@
         <v>hola@inimarehabilitacion.com;salud@sputnikclimbing.com;administracion@renuevat.es;clinicaolivaralcobendas@gmail.com;info@fisioterapiaequilybrium.es;info@zenther.com;jfcollin00@gmail.com;clinica@centroclinicolachopera.com;info@fisioterapiasacral.com;info@fisiocore.net;fisiociclica.sandra@gmail.com;sansebastian@fisioweb.com;cjfisioterapeutas@gmail.com;recepcion@clinicasaleria.es</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>175</v>
       </c>
@@ -3279,7 +3299,7 @@
         <v>hola@inimarehabilitacion.com;salud@sputnikclimbing.com;administracion@renuevat.es;clinicaolivaralcobendas@gmail.com;info@fisioterapiaequilybrium.es;info@zenther.com;jfcollin00@gmail.com;clinica@centroclinicolachopera.com;info@fisioterapiasacral.com;info@fisiocore.net;fisiociclica.sandra@gmail.com;sansebastian@fisioweb.com;cjfisioterapeutas@gmail.com;recepcion@clinicasaleria.es;soporte@doctoralia.com</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>179</v>
       </c>
@@ -3306,7 +3326,7 @@
         <v>hola@inimarehabilitacion.com;salud@sputnikclimbing.com;administracion@renuevat.es;clinicaolivaralcobendas@gmail.com;info@fisioterapiaequilybrium.es;info@zenther.com;jfcollin00@gmail.com;clinica@centroclinicolachopera.com;info@fisioterapiasacral.com;info@fisiocore.net;fisiociclica.sandra@gmail.com;sansebastian@fisioweb.com;cjfisioterapeutas@gmail.com;recepcion@clinicasaleria.es;soporte@doctoralia.com;contacto@fisiorespiracion.es</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>184</v>
       </c>
@@ -3333,7 +3353,7 @@
         <v>hola@inimarehabilitacion.com;salud@sputnikclimbing.com;administracion@renuevat.es;clinicaolivaralcobendas@gmail.com;info@fisioterapiaequilybrium.es;info@zenther.com;jfcollin00@gmail.com;clinica@centroclinicolachopera.com;info@fisioterapiasacral.com;info@fisiocore.net;fisiociclica.sandra@gmail.com;sansebastian@fisioweb.com;cjfisioterapeutas@gmail.com;recepcion@clinicasaleria.es;soporte@doctoralia.com;contacto@fisiorespiracion.es;info@clinicainnovasalud.com</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>189</v>
       </c>
@@ -3360,7 +3380,7 @@
         <v>hola@inimarehabilitacion.com;salud@sputnikclimbing.com;administracion@renuevat.es;clinicaolivaralcobendas@gmail.com;info@fisioterapiaequilybrium.es;info@zenther.com;jfcollin00@gmail.com;clinica@centroclinicolachopera.com;info@fisioterapiasacral.com;info@fisiocore.net;fisiociclica.sandra@gmail.com;sansebastian@fisioweb.com;cjfisioterapeutas@gmail.com;recepcion@clinicasaleria.es;soporte@doctoralia.com;contacto@fisiorespiracion.es;info@clinicainnovasalud.com;atencionalpaciente@fisiowork.com</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>194</v>
       </c>
@@ -3387,7 +3407,7 @@
         <v>hola@inimarehabilitacion.com;salud@sputnikclimbing.com;administracion@renuevat.es;clinicaolivaralcobendas@gmail.com;info@fisioterapiaequilybrium.es;info@zenther.com;jfcollin00@gmail.com;clinica@centroclinicolachopera.com;info@fisioterapiasacral.com;info@fisiocore.net;fisiociclica.sandra@gmail.com;sansebastian@fisioweb.com;cjfisioterapeutas@gmail.com;recepcion@clinicasaleria.es;soporte@doctoralia.com;contacto@fisiorespiracion.es;info@clinicainnovasalud.com;atencionalpaciente@fisiowork.com;ajax-loader@2x.gif</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>199</v>
       </c>
@@ -3413,7 +3433,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>204</v>
       </c>
@@ -3440,7 +3460,7 @@
         <v>infohabana@fisiolution.com</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>209</v>
       </c>
@@ -3467,7 +3487,7 @@
         <v>infohabana@fisiolution.com;info@dfisio.com</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>214</v>
       </c>
@@ -3494,7 +3514,7 @@
         <v>infohabana@fisiolution.com;info@dfisio.com;info@kineyafisioterapia.com</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>219</v>
       </c>
@@ -3521,7 +3541,7 @@
         <v>infohabana@fisiolution.com;info@dfisio.com;info@kineyafisioterapia.com;centromove2be@gmail.com</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>224</v>
       </c>
@@ -3548,7 +3568,7 @@
         <v>infohabana@fisiolution.com;info@dfisio.com;info@kineyafisioterapia.com;centromove2be@gmail.com;info@fisiomotionsanse.com</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>228</v>
       </c>
@@ -3575,7 +3595,7 @@
         <v>infohabana@fisiolution.com;info@dfisio.com;info@kineyafisioterapia.com;centromove2be@gmail.com;info@fisiomotionsanse.com;agdgfisioterapia@gmail.com</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>234</v>
       </c>
@@ -3602,7 +3622,7 @@
         <v>infohabana@fisiolution.com;info@dfisio.com;info@kineyafisioterapia.com;centromove2be@gmail.com;info@fisiomotionsanse.com;agdgfisioterapia@gmail.com;info@soulfisioterapia.com</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>239</v>
       </c>
@@ -3629,7 +3649,7 @@
         <v>infohabana@fisiolution.com;info@dfisio.com;info@kineyafisioterapia.com;centromove2be@gmail.com;info@fisiomotionsanse.com;agdgfisioterapia@gmail.com;info@soulfisioterapia.com;clinicakorporea@yahoo.com</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>244</v>
       </c>
@@ -3656,7 +3676,7 @@
         <v>infohabana@fisiolution.com;info@dfisio.com;info@kineyafisioterapia.com;centromove2be@gmail.com;info@fisiomotionsanse.com;agdgfisioterapia@gmail.com;info@soulfisioterapia.com;clinicakorporea@yahoo.com;grupo_kit_mobile@2x.png</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>249</v>
       </c>
@@ -3683,7 +3703,7 @@
         <v>infohabana@fisiolution.com;info@dfisio.com;info@kineyafisioterapia.com;centromove2be@gmail.com;info@fisiomotionsanse.com;agdgfisioterapia@gmail.com;info@soulfisioterapia.com;clinicakorporea@yahoo.com;grupo_kit_mobile@2x.png;agdgfisioterapia@gmail.com</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>252</v>
       </c>
@@ -3710,7 +3730,7 @@
         <v>infohabana@fisiolution.com;info@dfisio.com;info@kineyafisioterapia.com;centromove2be@gmail.com;info@fisiomotionsanse.com;agdgfisioterapia@gmail.com;info@soulfisioterapia.com;clinicakorporea@yahoo.com;grupo_kit_mobile@2x.png;agdgfisioterapia@gmail.com;info@puertosalud.es</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>257</v>
       </c>
@@ -3737,7 +3757,7 @@
         <v>infohabana@fisiolution.com;info@dfisio.com;info@kineyafisioterapia.com;centromove2be@gmail.com;info@fisiomotionsanse.com;agdgfisioterapia@gmail.com;info@soulfisioterapia.com;clinicakorporea@yahoo.com;grupo_kit_mobile@2x.png;agdgfisioterapia@gmail.com;info@puertosalud.es;info@clinicaprismacoslada.com</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>262</v>
       </c>
@@ -3764,7 +3784,7 @@
         <v>infohabana@fisiolution.com;info@dfisio.com;info@kineyafisioterapia.com;centromove2be@gmail.com;info@fisiomotionsanse.com;agdgfisioterapia@gmail.com;info@soulfisioterapia.com;clinicakorporea@yahoo.com;grupo_kit_mobile@2x.png;agdgfisioterapia@gmail.com;info@puertosalud.es;info@clinicaprismacoslada.com;osfisalud@gmail.com</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>267</v>
       </c>
@@ -3791,7 +3811,7 @@
         <v>infohabana@fisiolution.com;info@dfisio.com;info@kineyafisioterapia.com;centromove2be@gmail.com;info@fisiomotionsanse.com;agdgfisioterapia@gmail.com;info@soulfisioterapia.com;clinicakorporea@yahoo.com;grupo_kit_mobile@2x.png;agdgfisioterapia@gmail.com;info@puertosalud.es;info@clinicaprismacoslada.com;osfisalud@gmail.com;info@andaclinic.com</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>272</v>
       </c>
@@ -3818,7 +3838,7 @@
         <v>infohabana@fisiolution.com;info@dfisio.com;info@kineyafisioterapia.com;centromove2be@gmail.com;info@fisiomotionsanse.com;agdgfisioterapia@gmail.com;info@soulfisioterapia.com;clinicakorporea@yahoo.com;grupo_kit_mobile@2x.png;agdgfisioterapia@gmail.com;info@puertosalud.es;info@clinicaprismacoslada.com;osfisalud@gmail.com;info@andaclinic.com;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>276</v>
       </c>
@@ -3845,7 +3865,7 @@
         <v>infohabana@fisiolution.com;info@dfisio.com;info@kineyafisioterapia.com;centromove2be@gmail.com;info@fisiomotionsanse.com;agdgfisioterapia@gmail.com;info@soulfisioterapia.com;clinicakorporea@yahoo.com;grupo_kit_mobile@2x.png;agdgfisioterapia@gmail.com;info@puertosalud.es;info@clinicaprismacoslada.com;osfisalud@gmail.com;info@andaclinic.com;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com;contacto@cosvitafisioterapia.com</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>281</v>
       </c>
@@ -3872,7 +3892,7 @@
         <v>infohabana@fisiolution.com;info@dfisio.com;info@kineyafisioterapia.com;centromove2be@gmail.com;info@fisiomotionsanse.com;agdgfisioterapia@gmail.com;info@soulfisioterapia.com;clinicakorporea@yahoo.com;grupo_kit_mobile@2x.png;agdgfisioterapia@gmail.com;info@puertosalud.es;info@clinicaprismacoslada.com;osfisalud@gmail.com;info@andaclinic.com;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com;contacto@cosvitafisioterapia.com;cmed_andromeda@yahoo.es</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>286</v>
       </c>
@@ -3899,7 +3919,7 @@
         <v>infohabana@fisiolution.com;info@dfisio.com;info@kineyafisioterapia.com;centromove2be@gmail.com;info@fisiomotionsanse.com;agdgfisioterapia@gmail.com;info@soulfisioterapia.com;clinicakorporea@yahoo.com;grupo_kit_mobile@2x.png;agdgfisioterapia@gmail.com;info@puertosalud.es;info@clinicaprismacoslada.com;osfisalud@gmail.com;info@andaclinic.com;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com;contacto@cosvitafisioterapia.com;cmed_andromeda@yahoo.es;info@fisioterapiasusanacobo.es</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>291</v>
       </c>
@@ -3926,7 +3946,7 @@
         <v>infohabana@fisiolution.com;info@dfisio.com;info@kineyafisioterapia.com;centromove2be@gmail.com;info@fisiomotionsanse.com;agdgfisioterapia@gmail.com;info@soulfisioterapia.com;clinicakorporea@yahoo.com;grupo_kit_mobile@2x.png;agdgfisioterapia@gmail.com;info@puertosalud.es;info@clinicaprismacoslada.com;osfisalud@gmail.com;info@andaclinic.com;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com;contacto@cosvitafisioterapia.com;cmed_andromeda@yahoo.es;info@fisioterapiasusanacobo.es;secretaria@fisiobronquial.com</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>296</v>
       </c>
@@ -3952,7 +3972,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>301</v>
       </c>
@@ -3979,7 +3999,7 @@
         <v>info@fisioterapiasernoe.es</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>306</v>
       </c>
@@ -4006,7 +4026,7 @@
         <v>info@fisioterapiasernoe.es;info@clinicaabla.com</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>311</v>
       </c>
@@ -4033,7 +4053,7 @@
         <v>info@fisioterapiasernoe.es;info@clinicaabla.com;hola@osteopatiazarco.com</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>316</v>
       </c>
@@ -4060,7 +4080,7 @@
         <v>info@fisioterapiasernoe.es;info@clinicaabla.com;hola@osteopatiazarco.com;info@roucofisioterapia.es</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>321</v>
       </c>
@@ -4087,7 +4107,7 @@
         <v>info@fisioterapiasernoe.es;info@clinicaabla.com;hola@osteopatiazarco.com;info@roucofisioterapia.es;info@pasosfisioterapia.com</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>326</v>
       </c>
@@ -4114,7 +4134,7 @@
         <v>info@fisioterapiasernoe.es;info@clinicaabla.com;hola@osteopatiazarco.com;info@roucofisioterapia.es;info@pasosfisioterapia.com;logopedia@clinicaemme.es</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>331</v>
       </c>
@@ -4141,7 +4161,7 @@
         <v>info@fisioterapiasernoe.es;info@clinicaabla.com;hola@osteopatiazarco.com;info@roucofisioterapia.es;info@pasosfisioterapia.com;logopedia@clinicaemme.es;info@fisiocasa.es</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>336</v>
       </c>
@@ -4168,7 +4188,7 @@
         <v>info@fisioterapiasernoe.es;info@clinicaabla.com;hola@osteopatiazarco.com;info@roucofisioterapia.es;info@pasosfisioterapia.com;logopedia@clinicaemme.es;info@fisiocasa.es;info@ergosalud.es</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>341</v>
       </c>
@@ -4195,7 +4215,7 @@
         <v>info@fisioterapiasernoe.es;info@clinicaabla.com;hola@osteopatiazarco.com;info@roucofisioterapia.es;info@pasosfisioterapia.com;logopedia@clinicaemme.es;info@fisiocasa.es;info@ergosalud.es;info@clinicaabla.com</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>345</v>
       </c>
@@ -4222,7 +4242,7 @@
         <v>info@fisioterapiasernoe.es;info@clinicaabla.com;hola@osteopatiazarco.com;info@roucofisioterapia.es;info@pasosfisioterapia.com;logopedia@clinicaemme.es;info@fisiocasa.es;info@ergosalud.es;info@clinicaabla.com;fisioinelite@gmail.com</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>350</v>
       </c>
@@ -4249,7 +4269,7 @@
         <v>info@fisioterapiasernoe.es;info@clinicaabla.com;hola@osteopatiazarco.com;info@roucofisioterapia.es;info@pasosfisioterapia.com;logopedia@clinicaemme.es;info@fisiocasa.es;info@ergosalud.es;info@clinicaabla.com;fisioinelite@gmail.com;info@texum.es</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>355</v>
       </c>
@@ -4276,7 +4296,7 @@
         <v>info@fisioterapiasernoe.es;info@clinicaabla.com;hola@osteopatiazarco.com;info@roucofisioterapia.es;info@pasosfisioterapia.com;logopedia@clinicaemme.es;info@fisiocasa.es;info@ergosalud.es;info@clinicaabla.com;fisioinelite@gmail.com;info@texum.es;info@clinicabaena.com</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>360</v>
       </c>
@@ -4303,7 +4323,7 @@
         <v>info@fisioterapiasernoe.es;info@clinicaabla.com;hola@osteopatiazarco.com;info@roucofisioterapia.es;info@pasosfisioterapia.com;logopedia@clinicaemme.es;info@fisiocasa.es;info@ergosalud.es;info@clinicaabla.com;fisioinelite@gmail.com;info@texum.es;info@clinicabaena.com;info.sanfernando@laphysiologie.es</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>365</v>
       </c>
@@ -4330,7 +4350,7 @@
         <v>info@fisioterapiasernoe.es;info@clinicaabla.com;hola@osteopatiazarco.com;info@roucofisioterapia.es;info@pasosfisioterapia.com;logopedia@clinicaemme.es;info@fisiocasa.es;info@ergosalud.es;info@clinicaabla.com;fisioinelite@gmail.com;info@texum.es;info@clinicabaena.com;info.sanfernando@laphysiologie.es;info@clinicaabla.com</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>367</v>
       </c>
@@ -4357,7 +4377,7 @@
         <v>info@fisioterapiasernoe.es;info@clinicaabla.com;hola@osteopatiazarco.com;info@roucofisioterapia.es;info@pasosfisioterapia.com;logopedia@clinicaemme.es;info@fisiocasa.es;info@ergosalud.es;info@clinicaabla.com;fisioinelite@gmail.com;info@texum.es;info@clinicabaena.com;info.sanfernando@laphysiologie.es;info@clinicaabla.com;contact@mysite.com</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>372</v>
       </c>
@@ -4384,7 +4404,7 @@
         <v>info@fisioterapiasernoe.es;info@clinicaabla.com;hola@osteopatiazarco.com;info@roucofisioterapia.es;info@pasosfisioterapia.com;logopedia@clinicaemme.es;info@fisiocasa.es;info@ergosalud.es;info@clinicaabla.com;fisioinelite@gmail.com;info@texum.es;info@clinicabaena.com;info.sanfernando@laphysiologie.es;info@clinicaabla.com;contact@mysite.com;info@fisioterapiaescalante.com</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>377</v>
       </c>
@@ -4411,7 +4431,7 @@
         <v>info@fisioterapiasernoe.es;info@clinicaabla.com;hola@osteopatiazarco.com;info@roucofisioterapia.es;info@pasosfisioterapia.com;logopedia@clinicaemme.es;info@fisiocasa.es;info@ergosalud.es;info@clinicaabla.com;fisioinelite@gmail.com;info@texum.es;info@clinicabaena.com;info.sanfernando@laphysiologie.es;info@clinicaabla.com;contact@mysite.com;info@fisioterapiaescalante.com;info@clinicaolivo.es</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>382</v>
       </c>
@@ -4438,7 +4458,7 @@
         <v>info@fisioterapiasernoe.es;info@clinicaabla.com;hola@osteopatiazarco.com;info@roucofisioterapia.es;info@pasosfisioterapia.com;logopedia@clinicaemme.es;info@fisiocasa.es;info@ergosalud.es;info@clinicaabla.com;fisioinelite@gmail.com;info@texum.es;info@clinicabaena.com;info.sanfernando@laphysiologie.es;info@clinicaabla.com;contact@mysite.com;info@fisioterapiaescalante.com;info@clinicaolivo.es;dpo@forus.es</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>387</v>
       </c>
@@ -4465,7 +4485,7 @@
         <v>info@fisioterapiasernoe.es;info@clinicaabla.com;hola@osteopatiazarco.com;info@roucofisioterapia.es;info@pasosfisioterapia.com;logopedia@clinicaemme.es;info@fisiocasa.es;info@ergosalud.es;info@clinicaabla.com;fisioinelite@gmail.com;info@texum.es;info@clinicabaena.com;info.sanfernando@laphysiologie.es;info@clinicaabla.com;contact@mysite.com;info@fisioterapiaescalante.com;info@clinicaolivo.es;dpo@forus.es;info@tressalud.com</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>392</v>
       </c>
@@ -4491,7 +4511,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>397</v>
       </c>
@@ -4513,12 +4533,12 @@
       <c r="G82" t="s">
         <v>233</v>
       </c>
-      <c r="H82" t="str">
+      <c r="H82" s="2" t="str">
         <f>E82</f>
         <v>info@centromandalu.es</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>402</v>
       </c>
@@ -4540,12 +4560,12 @@
       <c r="G83" t="s">
         <v>233</v>
       </c>
-      <c r="H83" t="str">
+      <c r="H83" s="2" t="str">
         <f t="shared" si="1"/>
         <v>info@centromandalu.es;acuosesnatural@gmail.com</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>407</v>
       </c>
@@ -4567,12 +4587,12 @@
       <c r="G84" t="s">
         <v>233</v>
       </c>
-      <c r="H84" t="str">
+      <c r="H84" s="2" t="str">
         <f t="shared" si="1"/>
         <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>412</v>
       </c>
@@ -4594,12 +4614,12 @@
       <c r="G85" t="s">
         <v>233</v>
       </c>
-      <c r="H85" t="str">
+      <c r="H85" s="2" t="str">
         <f t="shared" si="1"/>
         <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>417</v>
       </c>
@@ -4621,12 +4641,12 @@
       <c r="G86" t="s">
         <v>233</v>
       </c>
-      <c r="H86" t="str">
+      <c r="H86" s="2" t="str">
         <f t="shared" si="1"/>
         <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>286</v>
       </c>
@@ -4648,12 +4668,12 @@
       <c r="G87" t="s">
         <v>422</v>
       </c>
-      <c r="H87" t="str">
+      <c r="H87" s="2" t="str">
         <f t="shared" si="1"/>
         <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>423</v>
       </c>
@@ -4675,12 +4695,12 @@
       <c r="G88" t="s">
         <v>422</v>
       </c>
-      <c r="H88" t="str">
+      <c r="H88" s="2" t="str">
         <f t="shared" si="1"/>
         <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>336</v>
       </c>
@@ -4702,12 +4722,12 @@
       <c r="G89" t="s">
         <v>422</v>
       </c>
-      <c r="H89" t="str">
+      <c r="H89" s="2" t="str">
         <f t="shared" si="1"/>
         <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>321</v>
       </c>
@@ -4729,12 +4749,12 @@
       <c r="G90" t="s">
         <v>422</v>
       </c>
-      <c r="H90" t="str">
+      <c r="H90" s="2" t="str">
         <f t="shared" si="1"/>
         <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>428</v>
       </c>
@@ -4756,12 +4776,12 @@
       <c r="G91" t="s">
         <v>422</v>
       </c>
-      <c r="H91" t="str">
+      <c r="H91" s="2" t="str">
         <f t="shared" si="1"/>
         <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>433</v>
       </c>
@@ -4783,12 +4803,12 @@
       <c r="G92" t="s">
         <v>422</v>
       </c>
-      <c r="H92" t="str">
+      <c r="H92" s="2" t="str">
         <f t="shared" si="1"/>
         <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>438</v>
       </c>
@@ -4810,12 +4830,12 @@
       <c r="G93" t="s">
         <v>422</v>
       </c>
-      <c r="H93" t="str">
+      <c r="H93" s="2" t="str">
         <f t="shared" si="1"/>
         <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>428</v>
       </c>
@@ -4837,12 +4857,12 @@
       <c r="G94" t="s">
         <v>422</v>
       </c>
-      <c r="H94" t="str">
+      <c r="H94" s="2" t="str">
         <f t="shared" si="1"/>
         <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>445</v>
       </c>
@@ -4864,12 +4884,12 @@
       <c r="G95" t="s">
         <v>422</v>
       </c>
-      <c r="H95" t="str">
+      <c r="H95" s="2" t="str">
         <f t="shared" si="1"/>
         <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>448</v>
       </c>
@@ -4891,12 +4911,12 @@
       <c r="G96" t="s">
         <v>422</v>
       </c>
-      <c r="H96" t="str">
+      <c r="H96" s="2" t="str">
         <f t="shared" si="1"/>
         <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>453</v>
       </c>
@@ -4918,12 +4938,12 @@
       <c r="G97" t="s">
         <v>422</v>
       </c>
-      <c r="H97" t="str">
+      <c r="H97" s="2" t="str">
         <f t="shared" si="1"/>
         <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>458</v>
       </c>
@@ -4945,12 +4965,12 @@
       <c r="G98" t="s">
         <v>422</v>
       </c>
-      <c r="H98" t="str">
+      <c r="H98" s="2" t="str">
         <f t="shared" si="1"/>
         <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>463</v>
       </c>
@@ -4972,12 +4992,12 @@
       <c r="G99" t="s">
         <v>422</v>
       </c>
-      <c r="H99" t="str">
+      <c r="H99" s="2" t="str">
         <f t="shared" si="1"/>
         <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>468</v>
       </c>
@@ -4999,12 +5019,12 @@
       <c r="G100" t="s">
         <v>422</v>
       </c>
-      <c r="H100" t="str">
+      <c r="H100" s="2" t="str">
         <f t="shared" si="1"/>
         <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>473</v>
       </c>
@@ -5026,12 +5046,11 @@
       <c r="G101" t="s">
         <v>422</v>
       </c>
-      <c r="H101" t="str">
-        <f t="shared" si="1"/>
-        <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H101" s="2" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>478</v>
       </c>
@@ -5053,12 +5072,12 @@
       <c r="G102" t="s">
         <v>422</v>
       </c>
-      <c r="H102" t="str">
-        <f t="shared" si="1"/>
-        <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H102" s="2" t="str">
+        <f>E102</f>
+        <v>info@clinicash3.es</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>483</v>
       </c>
@@ -5080,12 +5099,12 @@
       <c r="G103" t="s">
         <v>422</v>
       </c>
-      <c r="H103" t="str">
+      <c r="H103" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+        <v>info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>239</v>
       </c>
@@ -5107,12 +5126,12 @@
       <c r="G104" t="s">
         <v>422</v>
       </c>
-      <c r="H104" t="str">
+      <c r="H104" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+        <v>info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>488</v>
       </c>
@@ -5134,12 +5153,12 @@
       <c r="G105" t="s">
         <v>422</v>
       </c>
-      <c r="H105" t="str">
+      <c r="H105" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+        <v>info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>493</v>
       </c>
@@ -5161,12 +5180,12 @@
       <c r="G106" t="s">
         <v>422</v>
       </c>
-      <c r="H106" t="str">
+      <c r="H106" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+        <v>info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>498</v>
       </c>
@@ -5188,12 +5207,12 @@
       <c r="G107" t="s">
         <v>422</v>
       </c>
-      <c r="H107" t="str">
+      <c r="H107" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+        <v>info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>503</v>
       </c>
@@ -5215,12 +5234,12 @@
       <c r="G108" t="s">
         <v>422</v>
       </c>
-      <c r="H108" t="str">
+      <c r="H108" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+        <v>info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>508</v>
       </c>
@@ -5242,12 +5261,12 @@
       <c r="G109" t="s">
         <v>422</v>
       </c>
-      <c r="H109" t="str">
+      <c r="H109" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+        <v>info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>234</v>
       </c>
@@ -5269,12 +5288,12 @@
       <c r="G110" t="s">
         <v>422</v>
       </c>
-      <c r="H110" t="str">
+      <c r="H110" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+        <v>info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>387</v>
       </c>
@@ -5296,12 +5315,12 @@
       <c r="G111" t="s">
         <v>422</v>
       </c>
-      <c r="H111" t="str">
+      <c r="H111" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+        <v>info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>513</v>
       </c>
@@ -5323,12 +5342,12 @@
       <c r="G112" t="s">
         <v>422</v>
       </c>
-      <c r="H112" t="str">
+      <c r="H112" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+        <v>info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>518</v>
       </c>
@@ -5350,12 +5369,12 @@
       <c r="G113" t="s">
         <v>422</v>
       </c>
-      <c r="H113" t="str">
+      <c r="H113" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+        <v>info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>523</v>
       </c>
@@ -5377,12 +5396,12 @@
       <c r="G114" t="s">
         <v>422</v>
       </c>
-      <c r="H114" t="str">
+      <c r="H114" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es;info@afisionatemadrid.com</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+        <v>info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es;info@afisionatemadrid.com</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>528</v>
       </c>
@@ -5404,12 +5423,12 @@
       <c r="G115" t="s">
         <v>422</v>
       </c>
-      <c r="H115" t="str">
+      <c r="H115" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es;info@afisionatemadrid.com;contactofisioalmat@fisioterapiamadrid.net</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+        <v>info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es;info@afisionatemadrid.com;contactofisioalmat@fisioterapiamadrid.net</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>533</v>
       </c>
@@ -5431,12 +5450,12 @@
       <c r="G116" t="s">
         <v>422</v>
       </c>
-      <c r="H116" t="str">
+      <c r="H116" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es;info@afisionatemadrid.com;contactofisioalmat@fisioterapiamadrid.net;flags@2x.webp</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+        <v>info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es;info@afisionatemadrid.com;contactofisioalmat@fisioterapiamadrid.net;flags@2x.webp</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>538</v>
       </c>
@@ -5458,12 +5477,12 @@
       <c r="G117" t="s">
         <v>422</v>
       </c>
-      <c r="H117" t="str">
+      <c r="H117" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es;info@afisionatemadrid.com;contactofisioalmat@fisioterapiamadrid.net;flags@2x.webp;info@fisiomadrid21.com</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+        <v>info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es;info@afisionatemadrid.com;contactofisioalmat@fisioterapiamadrid.net;flags@2x.webp;info@fisiomadrid21.com</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>543</v>
       </c>
@@ -5485,12 +5504,12 @@
       <c r="G118" t="s">
         <v>422</v>
       </c>
-      <c r="H118" t="str">
+      <c r="H118" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es;info@afisionatemadrid.com;contactofisioalmat@fisioterapiamadrid.net;flags@2x.webp;info@fisiomadrid21.com;info@acfisio.es</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+        <v>info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es;info@afisionatemadrid.com;contactofisioalmat@fisioterapiamadrid.net;flags@2x.webp;info@fisiomadrid21.com;info@acfisio.es</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>548</v>
       </c>
@@ -5512,12 +5531,12 @@
       <c r="G119" t="s">
         <v>422</v>
       </c>
-      <c r="H119" t="str">
+      <c r="H119" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es;info@afisionatemadrid.com;contactofisioalmat@fisioterapiamadrid.net;flags@2x.webp;info@fisiomadrid21.com;info@acfisio.es;info@clinicarozalen.com</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+        <v>info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es;info@afisionatemadrid.com;contactofisioalmat@fisioterapiamadrid.net;flags@2x.webp;info@fisiomadrid21.com;info@acfisio.es;info@clinicarozalen.com</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>553</v>
       </c>
@@ -5539,12 +5558,12 @@
       <c r="G120" t="s">
         <v>422</v>
       </c>
-      <c r="H120" t="str">
+      <c r="H120" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es;info@afisionatemadrid.com;contactofisioalmat@fisioterapiamadrid.net;flags@2x.webp;info@fisiomadrid21.com;info@acfisio.es;info@clinicarozalen.com;info@medicalr2.es</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+        <v>info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es;info@afisionatemadrid.com;contactofisioalmat@fisioterapiamadrid.net;flags@2x.webp;info@fisiomadrid21.com;info@acfisio.es;info@clinicarozalen.com;info@medicalr2.es</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>558</v>
       </c>
@@ -5566,12 +5585,11 @@
       <c r="G121" t="s">
         <v>422</v>
       </c>
-      <c r="H121" t="str">
-        <f t="shared" si="1"/>
-        <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es;info@afisionatemadrid.com;contactofisioalmat@fisioterapiamadrid.net;flags@2x.webp;info@fisiomadrid21.com;info@acfisio.es;info@clinicarozalen.com;info@medicalr2.es;info@fisio-especialistas.com</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H121" s="3" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>563</v>
       </c>
@@ -5593,12 +5611,12 @@
       <c r="G122" t="s">
         <v>422</v>
       </c>
-      <c r="H122" t="str">
-        <f t="shared" si="1"/>
-        <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es;info@afisionatemadrid.com;contactofisioalmat@fisioterapiamadrid.net;flags@2x.webp;info@fisiomadrid21.com;info@acfisio.es;info@clinicarozalen.com;info@medicalr2.es;info@fisio-especialistas.com;info.caamano@clinicash3.es</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H122" s="2" t="str">
+        <f>E122</f>
+        <v>info.caamano@clinicash3.es</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>568</v>
       </c>
@@ -5620,12 +5638,12 @@
       <c r="G123" t="s">
         <v>422</v>
       </c>
-      <c r="H123" t="str">
+      <c r="H123" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es;info@afisionatemadrid.com;contactofisioalmat@fisioterapiamadrid.net;flags@2x.webp;info@fisiomadrid21.com;info@acfisio.es;info@clinicarozalen.com;info@medicalr2.es;info@fisio-especialistas.com;info.caamano@clinicash3.es;info@fisioavanzadelicias.com</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+        <v>info.caamano@clinicash3.es;info@fisioavanzadelicias.com</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>252</v>
       </c>
@@ -5647,12 +5665,12 @@
       <c r="G124" t="s">
         <v>422</v>
       </c>
-      <c r="H124" t="str">
+      <c r="H124" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es;info@afisionatemadrid.com;contactofisioalmat@fisioterapiamadrid.net;flags@2x.webp;info@fisiomadrid21.com;info@acfisio.es;info@clinicarozalen.com;info@medicalr2.es;info@fisio-especialistas.com;info.caamano@clinicash3.es;info@fisioavanzadelicias.com;info@puertosalud.es</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+        <v>info.caamano@clinicash3.es;info@fisioavanzadelicias.com;info@puertosalud.es</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>331</v>
       </c>
@@ -5674,12 +5692,12 @@
       <c r="G125" t="s">
         <v>422</v>
       </c>
-      <c r="H125" t="str">
+      <c r="H125" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es;info@afisionatemadrid.com;contactofisioalmat@fisioterapiamadrid.net;flags@2x.webp;info@fisiomadrid21.com;info@acfisio.es;info@clinicarozalen.com;info@medicalr2.es;info@fisio-especialistas.com;info.caamano@clinicash3.es;info@fisioavanzadelicias.com;info@puertosalud.es;info@fisiocasa.es</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+        <v>info.caamano@clinicash3.es;info@fisioavanzadelicias.com;info@puertosalud.es;info@fisiocasa.es</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>573</v>
       </c>
@@ -5701,12 +5719,12 @@
       <c r="G126" t="s">
         <v>422</v>
       </c>
-      <c r="H126" t="str">
+      <c r="H126" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es;info@afisionatemadrid.com;contactofisioalmat@fisioterapiamadrid.net;flags@2x.webp;info@fisiomadrid21.com;info@acfisio.es;info@clinicarozalen.com;info@medicalr2.es;info@fisio-especialistas.com;info.caamano@clinicash3.es;info@fisioavanzadelicias.com;info@puertosalud.es;info@fisiocasa.es;fisioterapia@eduveiga.es</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+        <v>info.caamano@clinicash3.es;info@fisioavanzadelicias.com;info@puertosalud.es;info@fisiocasa.es;fisioterapia@eduveiga.es</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>578</v>
       </c>
@@ -5728,12 +5746,12 @@
       <c r="G127" t="s">
         <v>422</v>
       </c>
-      <c r="H127" t="str">
+      <c r="H127" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es;info@afisionatemadrid.com;contactofisioalmat@fisioterapiamadrid.net;flags@2x.webp;info@fisiomadrid21.com;info@acfisio.es;info@clinicarozalen.com;info@medicalr2.es;info@fisio-especialistas.com;info.caamano@clinicash3.es;info@fisioavanzadelicias.com;info@puertosalud.es;info@fisiocasa.es;fisioterapia@eduveiga.es;fisioterapiamadridrio@gmail.com</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+        <v>info.caamano@clinicash3.es;info@fisioavanzadelicias.com;info@puertosalud.es;info@fisiocasa.es;fisioterapia@eduveiga.es;fisioterapiamadridrio@gmail.com</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>488</v>
       </c>
@@ -5755,12 +5773,12 @@
       <c r="G128" t="s">
         <v>422</v>
       </c>
-      <c r="H128" t="str">
+      <c r="H128" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es;info@afisionatemadrid.com;contactofisioalmat@fisioterapiamadrid.net;flags@2x.webp;info@fisiomadrid21.com;info@acfisio.es;info@clinicarozalen.com;info@medicalr2.es;info@fisio-especialistas.com;info.caamano@clinicash3.es;info@fisioavanzadelicias.com;info@puertosalud.es;info@fisiocasa.es;fisioterapia@eduveiga.es;fisioterapiamadridrio@gmail.com;info@estudiofisio.es</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+        <v>info.caamano@clinicash3.es;info@fisioavanzadelicias.com;info@puertosalud.es;info@fisiocasa.es;fisioterapia@eduveiga.es;fisioterapiamadridrio@gmail.com;info@estudiofisio.es</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>586</v>
       </c>
@@ -5782,12 +5800,12 @@
       <c r="G129" t="s">
         <v>422</v>
       </c>
-      <c r="H129" t="str">
+      <c r="H129" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es;info@afisionatemadrid.com;contactofisioalmat@fisioterapiamadrid.net;flags@2x.webp;info@fisiomadrid21.com;info@acfisio.es;info@clinicarozalen.com;info@medicalr2.es;info@fisio-especialistas.com;info.caamano@clinicash3.es;info@fisioavanzadelicias.com;info@puertosalud.es;info@fisiocasa.es;fisioterapia@eduveiga.es;fisioterapiamadridrio@gmail.com;info@estudiofisio.es;info@ftmmadrid.com</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+        <v>info.caamano@clinicash3.es;info@fisioavanzadelicias.com;info@puertosalud.es;info@fisiocasa.es;fisioterapia@eduveiga.es;fisioterapiamadridrio@gmail.com;info@estudiofisio.es;info@ftmmadrid.com</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>367</v>
       </c>
@@ -5809,12 +5827,12 @@
       <c r="G130" t="s">
         <v>422</v>
       </c>
-      <c r="H130" t="str">
+      <c r="H130" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es;info@afisionatemadrid.com;contactofisioalmat@fisioterapiamadrid.net;flags@2x.webp;info@fisiomadrid21.com;info@acfisio.es;info@clinicarozalen.com;info@medicalr2.es;info@fisio-especialistas.com;info.caamano@clinicash3.es;info@fisioavanzadelicias.com;info@puertosalud.es;info@fisiocasa.es;fisioterapia@eduveiga.es;fisioterapiamadridrio@gmail.com;info@estudiofisio.es;info@ftmmadrid.com;contact@mysite.com</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+        <v>info.caamano@clinicash3.es;info@fisioavanzadelicias.com;info@puertosalud.es;info@fisiocasa.es;fisioterapia@eduveiga.es;fisioterapiamadridrio@gmail.com;info@estudiofisio.es;info@ftmmadrid.com;contact@mysite.com</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>591</v>
       </c>
@@ -5836,12 +5854,12 @@
       <c r="G131" t="s">
         <v>422</v>
       </c>
-      <c r="H131" t="str">
+      <c r="H131" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es;info@afisionatemadrid.com;contactofisioalmat@fisioterapiamadrid.net;flags@2x.webp;info@fisiomadrid21.com;info@acfisio.es;info@clinicarozalen.com;info@medicalr2.es;info@fisio-especialistas.com;info.caamano@clinicash3.es;info@fisioavanzadelicias.com;info@puertosalud.es;info@fisiocasa.es;fisioterapia@eduveiga.es;fisioterapiamadridrio@gmail.com;info@estudiofisio.es;info@ftmmadrid.com;contact@mysite.com;hola@fisiowhite.com</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+        <v>info.caamano@clinicash3.es;info@fisioavanzadelicias.com;info@puertosalud.es;info@fisiocasa.es;fisioterapia@eduveiga.es;fisioterapiamadridrio@gmail.com;info@estudiofisio.es;info@ftmmadrid.com;contact@mysite.com;hola@fisiowhite.com</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>596</v>
       </c>
@@ -5863,12 +5881,12 @@
       <c r="G132" t="s">
         <v>422</v>
       </c>
-      <c r="H132" t="str">
+      <c r="H132" s="2" t="str">
         <f t="shared" ref="H132:H138" si="2">H131&amp;";"&amp;E132</f>
-        <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es;info@afisionatemadrid.com;contactofisioalmat@fisioterapiamadrid.net;flags@2x.webp;info@fisiomadrid21.com;info@acfisio.es;info@clinicarozalen.com;info@medicalr2.es;info@fisio-especialistas.com;info.caamano@clinicash3.es;info@fisioavanzadelicias.com;info@puertosalud.es;info@fisiocasa.es;fisioterapia@eduveiga.es;fisioterapiamadridrio@gmail.com;info@estudiofisio.es;info@ftmmadrid.com;contact@mysite.com;hola@fisiowhite.com;info@clinicario.es</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+        <v>info.caamano@clinicash3.es;info@fisioavanzadelicias.com;info@puertosalud.es;info@fisiocasa.es;fisioterapia@eduveiga.es;fisioterapiamadridrio@gmail.com;info@estudiofisio.es;info@ftmmadrid.com;contact@mysite.com;hola@fisiowhite.com;info@clinicario.es</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>601</v>
       </c>
@@ -5890,12 +5908,12 @@
       <c r="G133" t="s">
         <v>422</v>
       </c>
-      <c r="H133" t="str">
+      <c r="H133" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es;info@afisionatemadrid.com;contactofisioalmat@fisioterapiamadrid.net;flags@2x.webp;info@fisiomadrid21.com;info@acfisio.es;info@clinicarozalen.com;info@medicalr2.es;info@fisio-especialistas.com;info.caamano@clinicash3.es;info@fisioavanzadelicias.com;info@puertosalud.es;info@fisiocasa.es;fisioterapia@eduveiga.es;fisioterapiamadridrio@gmail.com;info@estudiofisio.es;info@ftmmadrid.com;contact@mysite.com;hola@fisiowhite.com;info@clinicario.es;info@masfisio.es</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+        <v>info.caamano@clinicash3.es;info@fisioavanzadelicias.com;info@puertosalud.es;info@fisiocasa.es;fisioterapia@eduveiga.es;fisioterapiamadridrio@gmail.com;info@estudiofisio.es;info@ftmmadrid.com;contact@mysite.com;hola@fisiowhite.com;info@clinicario.es;info@masfisio.es</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>606</v>
       </c>
@@ -5917,12 +5935,12 @@
       <c r="G134" t="s">
         <v>422</v>
       </c>
-      <c r="H134" t="str">
+      <c r="H134" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es;info@afisionatemadrid.com;contactofisioalmat@fisioterapiamadrid.net;flags@2x.webp;info@fisiomadrid21.com;info@acfisio.es;info@clinicarozalen.com;info@medicalr2.es;info@fisio-especialistas.com;info.caamano@clinicash3.es;info@fisioavanzadelicias.com;info@puertosalud.es;info@fisiocasa.es;fisioterapia@eduveiga.es;fisioterapiamadridrio@gmail.com;info@estudiofisio.es;info@ftmmadrid.com;contact@mysite.com;hola@fisiowhite.com;info@clinicario.es;info@masfisio.es;info@theclinicstudio.es</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+        <v>info.caamano@clinicash3.es;info@fisioavanzadelicias.com;info@puertosalud.es;info@fisiocasa.es;fisioterapia@eduveiga.es;fisioterapiamadridrio@gmail.com;info@estudiofisio.es;info@ftmmadrid.com;contact@mysite.com;hola@fisiowhite.com;info@clinicario.es;info@masfisio.es;info@theclinicstudio.es</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>611</v>
       </c>
@@ -5944,12 +5962,12 @@
       <c r="G135" t="s">
         <v>422</v>
       </c>
-      <c r="H135" t="str">
+      <c r="H135" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es;info@afisionatemadrid.com;contactofisioalmat@fisioterapiamadrid.net;flags@2x.webp;info@fisiomadrid21.com;info@acfisio.es;info@clinicarozalen.com;info@medicalr2.es;info@fisio-especialistas.com;info.caamano@clinicash3.es;info@fisioavanzadelicias.com;info@puertosalud.es;info@fisiocasa.es;fisioterapia@eduveiga.es;fisioterapiamadridrio@gmail.com;info@estudiofisio.es;info@ftmmadrid.com;contact@mysite.com;hola@fisiowhite.com;info@clinicario.es;info@masfisio.es;info@theclinicstudio.es;contacto@drfisio.es</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+        <v>info.caamano@clinicash3.es;info@fisioavanzadelicias.com;info@puertosalud.es;info@fisiocasa.es;fisioterapia@eduveiga.es;fisioterapiamadridrio@gmail.com;info@estudiofisio.es;info@ftmmadrid.com;contact@mysite.com;hola@fisiowhite.com;info@clinicario.es;info@masfisio.es;info@theclinicstudio.es;contacto@drfisio.es</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>616</v>
       </c>
@@ -5971,12 +5989,12 @@
       <c r="G136" t="s">
         <v>422</v>
       </c>
-      <c r="H136" t="str">
+      <c r="H136" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es;info@afisionatemadrid.com;contactofisioalmat@fisioterapiamadrid.net;flags@2x.webp;info@fisiomadrid21.com;info@acfisio.es;info@clinicarozalen.com;info@medicalr2.es;info@fisio-especialistas.com;info.caamano@clinicash3.es;info@fisioavanzadelicias.com;info@puertosalud.es;info@fisiocasa.es;fisioterapia@eduveiga.es;fisioterapiamadridrio@gmail.com;info@estudiofisio.es;info@ftmmadrid.com;contact@mysite.com;hola@fisiowhite.com;info@clinicario.es;info@masfisio.es;info@theclinicstudio.es;contacto@drfisio.es;consultas@fisioterapiasantos.es</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+        <v>info.caamano@clinicash3.es;info@fisioavanzadelicias.com;info@puertosalud.es;info@fisiocasa.es;fisioterapia@eduveiga.es;fisioterapiamadridrio@gmail.com;info@estudiofisio.es;info@ftmmadrid.com;contact@mysite.com;hola@fisiowhite.com;info@clinicario.es;info@masfisio.es;info@theclinicstudio.es;contacto@drfisio.es;consultas@fisioterapiasantos.es</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>621</v>
       </c>
@@ -5998,12 +6016,12 @@
       <c r="G137" t="s">
         <v>422</v>
       </c>
-      <c r="H137" t="str">
+      <c r="H137" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es;info@afisionatemadrid.com;contactofisioalmat@fisioterapiamadrid.net;flags@2x.webp;info@fisiomadrid21.com;info@acfisio.es;info@clinicarozalen.com;info@medicalr2.es;info@fisio-especialistas.com;info.caamano@clinicash3.es;info@fisioavanzadelicias.com;info@puertosalud.es;info@fisiocasa.es;fisioterapia@eduveiga.es;fisioterapiamadridrio@gmail.com;info@estudiofisio.es;info@ftmmadrid.com;contact@mysite.com;hola@fisiowhite.com;info@clinicario.es;info@masfisio.es;info@theclinicstudio.es;contacto@drfisio.es;consultas@fisioterapiasantos.es;contacto@fisioterapiavelazquez22.es</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+        <v>info.caamano@clinicash3.es;info@fisioavanzadelicias.com;info@puertosalud.es;info@fisiocasa.es;fisioterapia@eduveiga.es;fisioterapiamadridrio@gmail.com;info@estudiofisio.es;info@ftmmadrid.com;contact@mysite.com;hola@fisiowhite.com;info@clinicario.es;info@masfisio.es;info@theclinicstudio.es;contacto@drfisio.es;consultas@fisioterapiasantos.es;contacto@fisioterapiavelazquez22.es</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>626</v>
       </c>
@@ -6025,12 +6043,15 @@
       <c r="G138" t="s">
         <v>422</v>
       </c>
-      <c r="H138" t="str">
-        <f t="shared" si="2"/>
-        <v>info@centromandalu.es;acuosesnatural@gmail.com;info@clinicamuv.com;info@clinicahenares.com;info@risitasylogros.es;info@fisioterapiasusanacobo.es;contacto@ejemplo.com;info@ergosalud.es;info@pasosfisioterapia.com;contacto@efisio.es;hola@enricgallofre.com;tuemail@ejemplo.com;contacto@efisio.es;contacto@efisio.es;info@urbanfisio.com;robeds90@gmail.com;fisiotherapymadrid@gmail.com;info@fisiomoncloa.es;hola@fisioterapiacentro.com;info@fisioterapiajl.com;info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es;info@afisionatemadrid.com;contactofisioalmat@fisioterapiamadrid.net;flags@2x.webp;info@fisiomadrid21.com;info@acfisio.es;info@clinicarozalen.com;info@medicalr2.es;info@fisio-especialistas.com;info.caamano@clinicash3.es;info@fisioavanzadelicias.com;info@puertosalud.es;info@fisiocasa.es;fisioterapia@eduveiga.es;fisioterapiamadridrio@gmail.com;info@estudiofisio.es;info@ftmmadrid.com;contact@mysite.com;hola@fisiowhite.com;info@clinicario.es;info@masfisio.es;info@theclinicstudio.es;contacto@drfisio.es;consultas@fisioterapiasantos.es;contacto@fisioterapiavelazquez22.es;info@fisioescenica.com</v>
+      <c r="H138" s="3" t="s">
+        <v>637</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H121" r:id="rId1" display="info@clinicash3.es;fisioterapia@fisioterapiafernandonavarro.com;clinicakorporea@yahoo.com;info@estudiofisio.es;info@fisiojes.com;info@fisioterapiamadridcentro.es;info@fisioterapiagoya.es;info@novofisio.com;info@soulfisioterapia.com;info@tressalud.com;info@fisioterapiapuertadelsol.es;info@fisiofuencarral.es;info@afisionatemadrid.com;contactofisioalmat@fisioterapiamadrid.net;flags@2x.webp;info@fisiomadrid21.com;info@acfisio.es;info@clinicarozalen.com;info@medicalr2.es;info@fisio-especialistas.com" xr:uid="{CE70ED17-EFB1-41A3-A098-D092469481CF}"/>
+    <hyperlink ref="H138" r:id="rId2" display="info.caamano@clinicash3.es;info@fisioavanzadelicias.com;info@puertosalud.es;info@fisiocasa.es;fisioterapia@eduveiga.es;fisioterapiamadridrio@gmail.com;info@estudiofisio.es;info@ftmmadrid.com;contact@mysite.com;hola@fisiowhite.com;info@clinicario.es;info@masfisio.es;info@theclinicstudio.es;contacto@drfisio.es;consultas@fisioterapiasantos.es;contacto@fisioterapiavelazquez22.es;info@fisioescenica.com" xr:uid="{103CB4F0-A57F-41E6-83E6-6580EECBF19D}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>